--- a/results/sorties SNBC3/Run 1bis/Résidentiel/R4 ensemble résidentiel/recalage parc immobilier - R4.xlsx
+++ b/results/sorties SNBC3/Run 1bis/Résidentiel/R4 ensemble résidentiel/recalage parc immobilier - R4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Callonnecg\Github\ThreeME\results\sorties SNBC3\Run 1bis\Résidentiel\R4 ensemble résidentiel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D689BD30-09C8-46B9-A743-27ABE88509C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B221E1E1-569E-472E-9AAC-046FA3B6A3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F3B8202A-200E-4C94-BB50-F6C7EC74A6D2}"/>
   </bookViews>
@@ -964,139 +964,139 @@
         <v>4825.2981717473203</v>
       </c>
       <c r="D2">
-        <v>5000.8254710000001</v>
+        <v>5000.8254699999998</v>
       </c>
       <c r="E2">
-        <v>5745.7942819999998</v>
+        <v>5745.7971159999997</v>
       </c>
       <c r="F2">
-        <v>7786.4467759999998</v>
+        <v>7749.1382400000002</v>
       </c>
       <c r="G2">
-        <v>8785.1361450000004</v>
+        <v>8754.2314640000004</v>
       </c>
       <c r="H2">
-        <v>8007.4023070000003</v>
+        <v>7993.1718490000003</v>
       </c>
       <c r="I2">
-        <v>8736.9558300000008</v>
+        <v>8737.9749630000006</v>
       </c>
       <c r="J2">
-        <v>10312.706029999999</v>
+        <v>10314.266250000001</v>
       </c>
       <c r="K2">
-        <v>11731.455620000001</v>
+        <v>11733.61642</v>
       </c>
       <c r="L2">
-        <v>12287.69701</v>
+        <v>12290.28369</v>
       </c>
       <c r="M2">
-        <v>11857.977199999999</v>
+        <v>11860.53505</v>
       </c>
       <c r="N2">
-        <v>9919.9541200000003</v>
+        <v>9922.2049490000009</v>
       </c>
       <c r="O2">
-        <v>9140.9623979999997</v>
+        <v>9143.4766400000008</v>
       </c>
       <c r="P2">
-        <v>10493.89437</v>
+        <v>10496.29874</v>
       </c>
       <c r="Q2">
-        <v>14167.024729999999</v>
+        <v>14169.19778</v>
       </c>
       <c r="R2">
-        <v>15473.066639999999</v>
+        <v>15444.715249999999</v>
       </c>
       <c r="S2">
-        <v>15847.725340000001</v>
+        <v>15854.89171</v>
       </c>
       <c r="T2">
-        <v>17200.929769999999</v>
+        <v>17201.42684</v>
       </c>
       <c r="U2">
-        <v>20279.263800000001</v>
+        <v>20253.716950000002</v>
       </c>
       <c r="V2">
-        <v>21940.532500000001</v>
+        <v>21855.246360000001</v>
       </c>
       <c r="W2">
-        <v>23739.619289999999</v>
+        <v>23386.413789999999</v>
       </c>
       <c r="X2">
-        <v>24843.88652</v>
+        <v>24294.166120000002</v>
       </c>
       <c r="Y2">
-        <v>24699.913120000001</v>
+        <v>23575.991740000001</v>
       </c>
       <c r="Z2">
-        <v>24068.153869999998</v>
+        <v>22762.631850000002</v>
       </c>
       <c r="AA2">
-        <v>23437.611560000001</v>
+        <v>21990.70408</v>
       </c>
       <c r="AB2">
-        <v>22986.470939999999</v>
+        <v>21408.225340000001</v>
       </c>
       <c r="AC2">
-        <v>22710.45779</v>
+        <v>20998.820779999998</v>
       </c>
       <c r="AD2">
-        <v>22478.890739999999</v>
+        <v>20636.179810000001</v>
       </c>
       <c r="AE2">
-        <v>22227.59895</v>
+        <v>20264.730579999999</v>
       </c>
       <c r="AF2">
-        <v>21931.086859999999</v>
+        <v>19867.766220000001</v>
       </c>
       <c r="AG2">
-        <v>21597.679100000001</v>
+        <v>19456.146280000001</v>
       </c>
       <c r="AH2">
-        <v>21257.079399999999</v>
+        <v>19055.868910000001</v>
       </c>
       <c r="AI2">
-        <v>20990.49135</v>
+        <v>18740.984929999999</v>
       </c>
       <c r="AJ2">
-        <v>20814.73691</v>
+        <v>18526.433000000001</v>
       </c>
       <c r="AK2">
-        <v>20713.544870000002</v>
+        <v>18395.147260000002</v>
       </c>
       <c r="AL2">
-        <v>20671.29999</v>
+        <v>18331.514920000001</v>
       </c>
       <c r="AM2">
-        <v>20698.203509999999</v>
+        <v>18342.60785</v>
       </c>
       <c r="AN2">
-        <v>20821.561259999999</v>
+        <v>18449.355339999998</v>
       </c>
       <c r="AO2">
-        <v>21019.790939999999</v>
+        <v>18630.937460000001</v>
       </c>
       <c r="AP2">
-        <v>21279.916570000001</v>
+        <v>18873.814549999999</v>
       </c>
       <c r="AQ2">
-        <v>21583.427589999999</v>
+        <v>19158.662120000001</v>
       </c>
       <c r="AR2">
-        <v>21936.2271</v>
+        <v>19489.338</v>
       </c>
       <c r="AS2">
-        <v>22374.355200000002</v>
+        <v>19894.699850000001</v>
       </c>
       <c r="AT2">
-        <v>22887.25964</v>
+        <v>20362.483980000001</v>
       </c>
       <c r="AU2">
-        <v>23456.393489999999</v>
+        <v>20876.340189999999</v>
       </c>
       <c r="AV2">
-        <v>24103.917079999999</v>
+        <v>21455.805629999999</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
@@ -1113,136 +1113,136 @@
         <v>281219.5834</v>
       </c>
       <c r="E3">
-        <v>307140.21460000001</v>
+        <v>307140.26549999998</v>
       </c>
       <c r="F3">
-        <v>390784.16619999998</v>
+        <v>389377.30440000002</v>
       </c>
       <c r="G3">
-        <v>448392.09499999997</v>
+        <v>447210.32419999997</v>
       </c>
       <c r="H3">
-        <v>411012.14120000001</v>
+        <v>410457.84110000002</v>
       </c>
       <c r="I3">
-        <v>450321.25270000001</v>
+        <v>450313.15590000001</v>
       </c>
       <c r="J3">
-        <v>522129.57909999997</v>
+        <v>522144.8371</v>
       </c>
       <c r="K3">
-        <v>599002.25909999898</v>
+        <v>599049.6923</v>
       </c>
       <c r="L3">
-        <v>619526.95819999999</v>
+        <v>619603.89969999995</v>
       </c>
       <c r="M3">
-        <v>590292.04550000001</v>
+        <v>590379.84739999997</v>
       </c>
       <c r="N3">
-        <v>487812.97950000002</v>
+        <v>487905.853</v>
       </c>
       <c r="O3">
-        <v>458106.94349999999</v>
+        <v>458232.78149999998</v>
       </c>
       <c r="P3">
-        <v>503986.3579</v>
+        <v>504124.69420000003</v>
       </c>
       <c r="Q3">
-        <v>675988.96790000005</v>
+        <v>676153.90289999999</v>
       </c>
       <c r="R3">
-        <v>699748.03859999997</v>
+        <v>700486.24170000001</v>
       </c>
       <c r="S3">
-        <v>741569.7378</v>
+        <v>745450.58979999996</v>
       </c>
       <c r="T3">
-        <v>760616.96440000006</v>
+        <v>767122.97510000004</v>
       </c>
       <c r="U3">
-        <v>903219.1409</v>
+        <v>911035.33589999995</v>
       </c>
       <c r="V3">
-        <v>956974.87089999998</v>
+        <v>965374.70599999896</v>
       </c>
       <c r="W3">
-        <v>1050730.1510000001</v>
+        <v>1053252.6310000001</v>
       </c>
       <c r="X3">
-        <v>1063118.683</v>
+        <v>1061062.7660000001</v>
       </c>
       <c r="Y3">
-        <v>1042477.307</v>
+        <v>1019360.92</v>
       </c>
       <c r="Z3">
-        <v>989518.52709999995</v>
+        <v>964020.30720000004</v>
       </c>
       <c r="AA3">
-        <v>942030.65430000005</v>
+        <v>915357.16480000003</v>
       </c>
       <c r="AB3">
-        <v>905499.89459999895</v>
+        <v>877810.94649999996</v>
       </c>
       <c r="AC3">
-        <v>877124.42660000001</v>
+        <v>848359.63299999898</v>
       </c>
       <c r="AD3">
-        <v>850740.54969999997</v>
+        <v>820975.28849999898</v>
       </c>
       <c r="AE3">
-        <v>824289.18290000001</v>
+        <v>793817.89280000003</v>
       </c>
       <c r="AF3">
-        <v>797456.6078</v>
+        <v>766648.89159999997</v>
       </c>
       <c r="AG3">
-        <v>770427.215499999</v>
+        <v>739646.18459999899</v>
       </c>
       <c r="AH3">
-        <v>745464.53689999995</v>
+        <v>715016.39489999996</v>
       </c>
       <c r="AI3">
-        <v>725285.64260000002</v>
+        <v>695452.15060000005</v>
       </c>
       <c r="AJ3">
-        <v>708980.9706</v>
+        <v>680096.8101</v>
       </c>
       <c r="AK3">
-        <v>695994.06949999998</v>
+        <v>668347.27740000002</v>
       </c>
       <c r="AL3">
-        <v>685606.44240000006</v>
+        <v>659474.85759999999</v>
       </c>
       <c r="AM3">
-        <v>677581.38809999998</v>
+        <v>653202.30579999997</v>
       </c>
       <c r="AN3">
-        <v>673228.37789999996</v>
+        <v>650676.32709999999</v>
       </c>
       <c r="AO3">
-        <v>671323.64049999998</v>
+        <v>650663.189799999</v>
       </c>
       <c r="AP3">
-        <v>670680.52009999997</v>
+        <v>651946.75340000005</v>
       </c>
       <c r="AQ3">
-        <v>671264.9436</v>
+        <v>654426.44929999998</v>
       </c>
       <c r="AR3">
-        <v>672943.71779999998</v>
+        <v>657941.62410000002</v>
       </c>
       <c r="AS3">
-        <v>676753.1618</v>
+        <v>663401.34389999998</v>
       </c>
       <c r="AT3">
-        <v>682448.0625</v>
+        <v>670486.87250000006</v>
       </c>
       <c r="AU3">
-        <v>689127.42810000002</v>
+        <v>678371.268199999</v>
       </c>
       <c r="AV3">
-        <v>695575.34489999898</v>
+        <v>685797.90489999996</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
@@ -1405,136 +1405,136 @@
         <v>188893454</v>
       </c>
       <c r="E5">
-        <v>180356056.19999999</v>
+        <v>180356056.40000001</v>
       </c>
       <c r="F5">
-        <v>171729621.80000001</v>
+        <v>171729648.5</v>
       </c>
       <c r="G5">
-        <v>163177792</v>
+        <v>163178021.19999999</v>
       </c>
       <c r="H5">
-        <v>155767028</v>
+        <v>155767561.5</v>
       </c>
       <c r="I5">
-        <v>148555910</v>
+        <v>148556805.59999999</v>
       </c>
       <c r="J5">
-        <v>141058402</v>
+        <v>141059494</v>
       </c>
       <c r="K5">
-        <v>133295328.3</v>
+        <v>133296354.5</v>
       </c>
       <c r="L5">
-        <v>125935994.5</v>
+        <v>125936692.2</v>
       </c>
       <c r="M5">
-        <v>119441056.09999999</v>
+        <v>119441286.40000001</v>
       </c>
       <c r="N5">
-        <v>114282905.09999999</v>
+        <v>114282605.90000001</v>
       </c>
       <c r="O5">
-        <v>109843889.3</v>
+        <v>109842892.5</v>
       </c>
       <c r="P5">
-        <v>105339043.59999999</v>
+        <v>105337272.59999999</v>
       </c>
       <c r="Q5">
-        <v>100009535.8</v>
+        <v>100006817.40000001</v>
       </c>
       <c r="R5">
-        <v>94856364.950000003</v>
+        <v>94848040.329999998</v>
       </c>
       <c r="S5">
-        <v>89973625.400000006</v>
+        <v>89949321.969999999</v>
       </c>
       <c r="T5">
-        <v>85335316.939999998</v>
+        <v>85281885.939999998</v>
       </c>
       <c r="U5">
-        <v>80410491.659999996</v>
+        <v>80326810.349999994</v>
       </c>
       <c r="V5">
-        <v>75555442.400000006</v>
+        <v>75439285.280000001</v>
       </c>
       <c r="W5">
-        <v>70622007.569999903</v>
+        <v>70488343.620000005</v>
       </c>
       <c r="X5">
-        <v>65936447.219999999</v>
+        <v>65788481.140000001</v>
       </c>
       <c r="Y5">
-        <v>61739900.890000001</v>
+        <v>61588614.719999999</v>
       </c>
       <c r="Z5">
-        <v>58083438.659999996</v>
+        <v>57922489.369999997</v>
       </c>
       <c r="AA5">
-        <v>54899968.189999998</v>
+        <v>54727967.640000001</v>
       </c>
       <c r="AB5">
-        <v>52104249.799999997</v>
+        <v>51920898.520000003</v>
       </c>
       <c r="AC5">
-        <v>49619358.609999999</v>
+        <v>49423834.210000001</v>
       </c>
       <c r="AD5">
-        <v>47378430.810000002</v>
+        <v>47169978.25</v>
       </c>
       <c r="AE5">
-        <v>45330256.32</v>
+        <v>45108166.68</v>
       </c>
       <c r="AF5">
-        <v>43438939.799999997</v>
+        <v>43202554.969999999</v>
       </c>
       <c r="AG5">
-        <v>41680048.799999997</v>
+        <v>41428841.530000001</v>
       </c>
       <c r="AH5">
-        <v>40034353.630000003</v>
+        <v>39767819.799999997</v>
       </c>
       <c r="AI5">
-        <v>38484045.380000003</v>
+        <v>38201536.020000003</v>
       </c>
       <c r="AJ5">
-        <v>37017612.43</v>
+        <v>36718390.399999999</v>
       </c>
       <c r="AK5">
-        <v>35627500.390000001</v>
+        <v>35310841.899999999</v>
       </c>
       <c r="AL5">
-        <v>34307837.659999996</v>
+        <v>33973089.630000003</v>
       </c>
       <c r="AM5">
-        <v>33052532.789999999</v>
+        <v>32699647.530000001</v>
       </c>
       <c r="AN5">
-        <v>31852955.890000001</v>
+        <v>31483559.09</v>
       </c>
       <c r="AO5">
-        <v>30705256.620000001</v>
+        <v>30320777.489999998</v>
       </c>
       <c r="AP5">
-        <v>29607502.739999998</v>
+        <v>29209348.309999999</v>
       </c>
       <c r="AQ5">
-        <v>28557991.109999999</v>
+        <v>28147663.140000001</v>
       </c>
       <c r="AR5">
-        <v>27554317.91</v>
+        <v>27133323.02</v>
       </c>
       <c r="AS5">
-        <v>26592557.129999999</v>
+        <v>26162545.010000002</v>
       </c>
       <c r="AT5">
-        <v>25669812.219999999</v>
+        <v>25232456.059999999</v>
       </c>
       <c r="AU5">
-        <v>24784073.010000002</v>
+        <v>24341098.789999999</v>
       </c>
       <c r="AV5">
-        <v>23935315.649999999</v>
+        <v>23488411.149999999</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.35">
@@ -1551,136 +1551,136 @@
         <v>412154138</v>
       </c>
       <c r="E6">
-        <v>406697165.30000001</v>
+        <v>406697165.39999998</v>
       </c>
       <c r="F6">
-        <v>399866966.39999998</v>
+        <v>400007324.89999998</v>
       </c>
       <c r="G6">
-        <v>392526694.30000001</v>
+        <v>392780700.89999998</v>
       </c>
       <c r="H6">
-        <v>387024261.19999999</v>
+        <v>387326492</v>
       </c>
       <c r="I6">
-        <v>381271430.69999999</v>
+        <v>381565293.80000001</v>
       </c>
       <c r="J6">
-        <v>373968498.60000002</v>
+        <v>374252763.30000001</v>
       </c>
       <c r="K6">
-        <v>365290263.60000002</v>
+        <v>365563754</v>
       </c>
       <c r="L6">
-        <v>356692033.5</v>
+        <v>356954676.80000001</v>
       </c>
       <c r="M6">
-        <v>349477571.10000002</v>
+        <v>349730321.80000001</v>
       </c>
       <c r="N6">
-        <v>345163557.10000002</v>
+        <v>345408436.19999999</v>
       </c>
       <c r="O6">
-        <v>342388050.69999999</v>
+        <v>342625601.80000001</v>
       </c>
       <c r="P6">
-        <v>338759295.69999999</v>
+        <v>338988872</v>
       </c>
       <c r="Q6">
-        <v>332215190</v>
+        <v>332434351.80000001</v>
       </c>
       <c r="R6">
-        <v>325417512.5</v>
+        <v>325663617.10000002</v>
       </c>
       <c r="S6">
-        <v>319289082</v>
+        <v>319470835.19999999</v>
       </c>
       <c r="T6">
-        <v>312985617.80000001</v>
+        <v>313145121.60000002</v>
       </c>
       <c r="U6">
-        <v>305060551</v>
+        <v>305085853.80000001</v>
       </c>
       <c r="V6">
-        <v>296327316.69999999</v>
+        <v>296198277.60000002</v>
       </c>
       <c r="W6">
-        <v>286506891.89999998</v>
+        <v>286234927.19999999</v>
       </c>
       <c r="X6">
-        <v>276416061.69999999</v>
+        <v>276009208.30000001</v>
       </c>
       <c r="Y6">
-        <v>267092583</v>
+        <v>266757598.69999999</v>
       </c>
       <c r="Z6">
-        <v>258909988.5</v>
+        <v>258625033.09999999</v>
       </c>
       <c r="AA6">
-        <v>251843093.40000001</v>
+        <v>251574756.59999999</v>
       </c>
       <c r="AB6">
-        <v>245723523.19999999</v>
+        <v>245435729.19999999</v>
       </c>
       <c r="AC6">
-        <v>240360188.59999999</v>
+        <v>240020217</v>
       </c>
       <c r="AD6">
-        <v>235573654.69999999</v>
+        <v>235155513.40000001</v>
       </c>
       <c r="AE6">
-        <v>231218569.30000001</v>
+        <v>230702244.69999999</v>
       </c>
       <c r="AF6">
-        <v>227190532.40000001</v>
+        <v>226560752.09999999</v>
       </c>
       <c r="AG6">
-        <v>223419427.90000001</v>
+        <v>222664806.19999999</v>
       </c>
       <c r="AH6">
-        <v>219843576.19999999</v>
+        <v>218955726.19999999</v>
       </c>
       <c r="AI6">
-        <v>216390068.80000001</v>
+        <v>215363161.19999999</v>
       </c>
       <c r="AJ6">
-        <v>213016316.69999999</v>
+        <v>211845534.5</v>
       </c>
       <c r="AK6">
-        <v>209700672.80000001</v>
+        <v>208381466.69999999</v>
       </c>
       <c r="AL6">
-        <v>206430374.19999999</v>
+        <v>204958145.19999999</v>
       </c>
       <c r="AM6">
-        <v>203192876.40000001</v>
+        <v>201563127.19999999</v>
       </c>
       <c r="AN6">
-        <v>199963154.30000001</v>
+        <v>198172569</v>
       </c>
       <c r="AO6">
-        <v>196729895.90000001</v>
+        <v>194775949.40000001</v>
       </c>
       <c r="AP6">
-        <v>193493965.90000001</v>
+        <v>191374637.40000001</v>
       </c>
       <c r="AQ6">
-        <v>190258602.80000001</v>
+        <v>187972389.69999999</v>
       </c>
       <c r="AR6">
-        <v>187022265.19999999</v>
+        <v>184568624.5</v>
       </c>
       <c r="AS6">
-        <v>183772308.69999999</v>
+        <v>181152637.69999999</v>
       </c>
       <c r="AT6">
-        <v>180501968.19999999</v>
+        <v>177719257</v>
       </c>
       <c r="AU6">
-        <v>177210474.19999999</v>
+        <v>174268882.09999999</v>
       </c>
       <c r="AV6">
-        <v>173908706.40000001</v>
+        <v>170812831.90000001</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.35">
@@ -1697,136 +1697,136 @@
         <v>786713699</v>
       </c>
       <c r="E7">
-        <v>775752929.70000005</v>
+        <v>775752928.5</v>
       </c>
       <c r="F7">
-        <v>763634184.5</v>
+        <v>763634068.89999998</v>
       </c>
       <c r="G7">
-        <v>751081528.29999995</v>
+        <v>751081007.89999998</v>
       </c>
       <c r="H7">
-        <v>741789323.29999995</v>
+        <v>741787661.20000005</v>
       </c>
       <c r="I7">
-        <v>732144264.89999998</v>
+        <v>732141570.10000002</v>
       </c>
       <c r="J7">
-        <v>720326644.29999995</v>
+        <v>720322839</v>
       </c>
       <c r="K7">
-        <v>706445104.70000005</v>
+        <v>706439969.89999998</v>
       </c>
       <c r="L7">
-        <v>692756325.5</v>
+        <v>692749075.29999995</v>
       </c>
       <c r="M7">
-        <v>681337599.39999998</v>
+        <v>681327627.60000002</v>
       </c>
       <c r="N7">
-        <v>674994962</v>
+        <v>674981613</v>
       </c>
       <c r="O7">
-        <v>671100940.39999998</v>
+        <v>671083129.79999995</v>
       </c>
       <c r="P7">
-        <v>665596677.70000005</v>
+        <v>665573898</v>
       </c>
       <c r="Q7">
-        <v>654604780.70000005</v>
+        <v>654576536.5</v>
       </c>
       <c r="R7">
-        <v>643202270</v>
+        <v>643139617.39999998</v>
       </c>
       <c r="S7">
-        <v>632339737.89999998</v>
+        <v>632169617.89999998</v>
       </c>
       <c r="T7">
-        <v>621333197</v>
+        <v>620967372.79999995</v>
       </c>
       <c r="U7">
-        <v>606877901</v>
+        <v>606286215.89999998</v>
       </c>
       <c r="V7">
-        <v>591164030.60000002</v>
+        <v>590316420.79999995</v>
       </c>
       <c r="W7">
-        <v>573729853.89999998</v>
+        <v>572798646.20000005</v>
       </c>
       <c r="X7">
-        <v>556225099</v>
+        <v>555238397.10000002</v>
       </c>
       <c r="Y7">
-        <v>540366168.70000005</v>
+        <v>539827614.39999998</v>
       </c>
       <c r="Z7">
-        <v>526644113.80000001</v>
+        <v>526463574.39999998</v>
       </c>
       <c r="AA7">
-        <v>514920653.89999998</v>
+        <v>514990905.39999998</v>
       </c>
       <c r="AB7">
-        <v>504833681.5</v>
+        <v>505056172</v>
       </c>
       <c r="AC7">
-        <v>496010668</v>
+        <v>496305303.30000001</v>
       </c>
       <c r="AD7">
-        <v>488127068.5</v>
+        <v>488437015</v>
       </c>
       <c r="AE7">
-        <v>480929881.89999998</v>
+        <v>481216954.30000001</v>
       </c>
       <c r="AF7">
-        <v>474245551</v>
+        <v>474483786.39999998</v>
       </c>
       <c r="AG7">
-        <v>467964574.10000002</v>
+        <v>468135746.10000002</v>
       </c>
       <c r="AH7">
-        <v>461990580.60000002</v>
+        <v>462081625.60000002</v>
       </c>
       <c r="AI7">
-        <v>456204281</v>
+        <v>456205991</v>
       </c>
       <c r="AJ7">
-        <v>450536725.5</v>
+        <v>450439969.89999998</v>
       </c>
       <c r="AK7">
-        <v>444952837.10000002</v>
+        <v>444747452.69999999</v>
       </c>
       <c r="AL7">
-        <v>439431701.30000001</v>
+        <v>439105900.19999999</v>
       </c>
       <c r="AM7">
-        <v>433951937.5</v>
+        <v>433492504.30000001</v>
       </c>
       <c r="AN7">
-        <v>428468364.89999998</v>
+        <v>427862893</v>
       </c>
       <c r="AO7">
-        <v>422958978.89999998</v>
+        <v>422196366.89999998</v>
       </c>
       <c r="AP7">
-        <v>417424480.5</v>
+        <v>416494162.30000001</v>
       </c>
       <c r="AQ7">
-        <v>411869306.39999998</v>
+        <v>410761718.30000001</v>
       </c>
       <c r="AR7">
-        <v>406288820.30000001</v>
+        <v>404996378.19999999</v>
       </c>
       <c r="AS7">
-        <v>400657055.10000002</v>
+        <v>399176881.5</v>
       </c>
       <c r="AT7">
-        <v>394958397</v>
+        <v>393291731.39999998</v>
       </c>
       <c r="AU7">
-        <v>389189271.60000002</v>
+        <v>387340676.39999998</v>
       </c>
       <c r="AV7">
-        <v>383369859.10000002</v>
+        <v>381346399</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.35">
@@ -1843,136 +1843,136 @@
         <v>661409532</v>
       </c>
       <c r="E8">
-        <v>682011878</v>
+        <v>682011874.10000002</v>
       </c>
       <c r="F8">
-        <v>703218362.20000005</v>
+        <v>703147479.79999995</v>
       </c>
       <c r="G8">
-        <v>724361947.10000002</v>
+        <v>724234990.20000005</v>
       </c>
       <c r="H8">
-        <v>742741995.89999998</v>
+        <v>742592928.89999998</v>
       </c>
       <c r="I8">
-        <v>760619697.10000002</v>
+        <v>760477911</v>
       </c>
       <c r="J8">
-        <v>779512137.39999998</v>
+        <v>779378157</v>
       </c>
       <c r="K8">
-        <v>798960222.20000005</v>
+        <v>798834499.60000002</v>
       </c>
       <c r="L8">
-        <v>817011564.60000002</v>
+        <v>816893722.79999995</v>
       </c>
       <c r="M8">
-        <v>832344749.60000002</v>
+        <v>832233855.89999998</v>
       </c>
       <c r="N8">
-        <v>838484919.29999995</v>
+        <v>838379182.60000002</v>
       </c>
       <c r="O8">
-        <v>841924427.79999995</v>
+        <v>841822910.10000002</v>
       </c>
       <c r="P8">
-        <v>845605901.20000005</v>
+        <v>845509267.70000005</v>
       </c>
       <c r="Q8">
-        <v>848896747.29999995</v>
+        <v>848807003.5</v>
       </c>
       <c r="R8">
-        <v>851413369.20000005</v>
+        <v>851291110.89999998</v>
       </c>
       <c r="S8">
-        <v>850738230.39999998</v>
+        <v>850582027.70000005</v>
       </c>
       <c r="T8">
-        <v>848981579.70000005</v>
+        <v>848702505.10000002</v>
       </c>
       <c r="U8">
-        <v>846471309.5</v>
+        <v>846144827.89999998</v>
       </c>
       <c r="V8">
-        <v>844432506.60000002</v>
+        <v>844073090.29999995</v>
       </c>
       <c r="W8">
-        <v>841985554.70000005</v>
+        <v>841745256.79999995</v>
       </c>
       <c r="X8">
-        <v>839894082.10000002</v>
+        <v>839893748.70000005</v>
       </c>
       <c r="Y8">
-        <v>837370391.20000005</v>
+        <v>837741534.20000005</v>
       </c>
       <c r="Z8">
-        <v>834298292.10000002</v>
+        <v>835082901.89999998</v>
       </c>
       <c r="AA8">
-        <v>830380018.10000002</v>
+        <v>831637144.10000002</v>
       </c>
       <c r="AB8">
-        <v>825531569.79999995</v>
+        <v>827327653.70000005</v>
       </c>
       <c r="AC8">
-        <v>819990866.89999998</v>
+        <v>822387072.20000005</v>
       </c>
       <c r="AD8">
-        <v>814082549.29999995</v>
+        <v>817118973.79999995</v>
       </c>
       <c r="AE8">
-        <v>808124112.60000002</v>
+        <v>811816375.10000002</v>
       </c>
       <c r="AF8">
-        <v>802325448.5</v>
+        <v>806669522.39999998</v>
       </c>
       <c r="AG8">
-        <v>796895250.20000005</v>
+        <v>801872969.39999998</v>
       </c>
       <c r="AH8">
-        <v>791701202.20000005</v>
+        <v>797283475</v>
       </c>
       <c r="AI8">
-        <v>786607650.29999995</v>
+        <v>792755186</v>
       </c>
       <c r="AJ8">
-        <v>781614440.60000002</v>
+        <v>788279501.60000002</v>
       </c>
       <c r="AK8">
-        <v>776602265.70000005</v>
+        <v>783730511.39999998</v>
       </c>
       <c r="AL8">
-        <v>771457178.60000002</v>
+        <v>778988785.70000005</v>
       </c>
       <c r="AM8">
-        <v>766163695.5</v>
+        <v>774033620.39999998</v>
       </c>
       <c r="AN8">
-        <v>760585442.5</v>
+        <v>768723643.5</v>
       </c>
       <c r="AO8">
-        <v>754659171.70000005</v>
+        <v>762994249.60000002</v>
       </c>
       <c r="AP8">
-        <v>748404510.20000005</v>
+        <v>756865945.20000005</v>
       </c>
       <c r="AQ8">
-        <v>741737132.39999998</v>
+        <v>750256432.5</v>
       </c>
       <c r="AR8">
-        <v>734634445.5</v>
+        <v>743145288.20000005</v>
       </c>
       <c r="AS8">
-        <v>727069714.70000005</v>
+        <v>735508131</v>
       </c>
       <c r="AT8">
-        <v>718986492.60000002</v>
+        <v>727294785.79999995</v>
       </c>
       <c r="AU8">
-        <v>710361856.29999995</v>
+        <v>718486842.89999998</v>
       </c>
       <c r="AV8">
-        <v>702192262.79999995</v>
+        <v>710088383.89999998</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.35">
@@ -1989,136 +1989,136 @@
         <v>300942006</v>
       </c>
       <c r="E9">
-        <v>326250386.5</v>
+        <v>326250389.89999998</v>
       </c>
       <c r="F9">
-        <v>351691598.19999999</v>
+        <v>351631886.30000001</v>
       </c>
       <c r="G9">
-        <v>376594305.80000001</v>
+        <v>376486736.30000001</v>
       </c>
       <c r="H9">
-        <v>396905949.30000001</v>
+        <v>396779597.10000002</v>
       </c>
       <c r="I9">
-        <v>416281454.39999998</v>
+        <v>416160731.80000001</v>
       </c>
       <c r="J9">
-        <v>436950522.69999999</v>
+        <v>436835651</v>
       </c>
       <c r="K9">
-        <v>459545630.89999998</v>
+        <v>459437010.60000002</v>
       </c>
       <c r="L9">
-        <v>481830226.69999999</v>
+        <v>481728405</v>
       </c>
       <c r="M9">
-        <v>501904099.19999999</v>
+        <v>501809308.60000002</v>
       </c>
       <c r="N9">
-        <v>512359953.19999999</v>
+        <v>512272006.60000002</v>
       </c>
       <c r="O9">
-        <v>520369608.5</v>
+        <v>520289198.80000001</v>
       </c>
       <c r="P9">
-        <v>529397501.80000001</v>
+        <v>529325125</v>
       </c>
       <c r="Q9">
-        <v>543041526.89999998</v>
+        <v>542978294.70000005</v>
       </c>
       <c r="R9">
-        <v>556152471.89999998</v>
+        <v>556101112.89999998</v>
       </c>
       <c r="S9">
-        <v>568563032.39999998</v>
+        <v>568601983.29999995</v>
       </c>
       <c r="T9">
-        <v>579866711.39999998</v>
+        <v>580023806.70000005</v>
       </c>
       <c r="U9">
-        <v>595386470.10000002</v>
+        <v>595712158.20000005</v>
       </c>
       <c r="V9">
-        <v>612658917.79999995</v>
+        <v>613148571.79999995</v>
       </c>
       <c r="W9">
-        <v>632781230</v>
+        <v>633299341.60000002</v>
       </c>
       <c r="X9">
-        <v>652437952.20000005</v>
+        <v>653011747.60000002</v>
       </c>
       <c r="Y9">
-        <v>669785739</v>
+        <v>670497158.60000002</v>
       </c>
       <c r="Z9">
-        <v>683942535.39999998</v>
+        <v>684859836.29999995</v>
       </c>
       <c r="AA9">
-        <v>695037283.39999998</v>
+        <v>696268801.89999998</v>
       </c>
       <c r="AB9">
-        <v>703539489.10000002</v>
+        <v>705222784.60000002</v>
       </c>
       <c r="AC9">
-        <v>710061014.39999998</v>
+        <v>712334632.79999995</v>
       </c>
       <c r="AD9">
-        <v>715064197.70000005</v>
+        <v>718044303.70000005</v>
       </c>
       <c r="AE9">
-        <v>718917799.10000002</v>
+        <v>722692632.5</v>
       </c>
       <c r="AF9">
-        <v>721874727.89999998</v>
+        <v>726509631.39999998</v>
       </c>
       <c r="AG9">
-        <v>724183263.79999995</v>
+        <v>729726446.60000002</v>
       </c>
       <c r="AH9">
-        <v>725871949.39999998</v>
+        <v>732361274.70000005</v>
       </c>
       <c r="AI9">
-        <v>727037122.89999998</v>
+        <v>734500303.20000005</v>
       </c>
       <c r="AJ9">
-        <v>727854862.70000005</v>
+        <v>736313562.39999998</v>
       </c>
       <c r="AK9">
-        <v>728369666.79999995</v>
+        <v>737844966.79999995</v>
       </c>
       <c r="AL9">
-        <v>728597278.39999998</v>
+        <v>739109044.79999995</v>
       </c>
       <c r="AM9">
-        <v>728632832.60000002</v>
+        <v>740199093.20000005</v>
       </c>
       <c r="AN9">
-        <v>728470742.29999995</v>
+        <v>741108539.29999995</v>
       </c>
       <c r="AO9">
-        <v>728133877.5</v>
+        <v>741858427.20000005</v>
       </c>
       <c r="AP9">
-        <v>727706470.5</v>
+        <v>742531504.70000005</v>
       </c>
       <c r="AQ9">
-        <v>727127315</v>
+        <v>743066505</v>
       </c>
       <c r="AR9">
-        <v>726405948.10000002</v>
+        <v>743469259.60000002</v>
       </c>
       <c r="AS9">
-        <v>725589672.60000002</v>
+        <v>743783490.70000005</v>
       </c>
       <c r="AT9">
-        <v>724647455.20000005</v>
+        <v>743975864.39999998</v>
       </c>
       <c r="AU9">
-        <v>723565830.89999998</v>
+        <v>744028298.20000005</v>
       </c>
       <c r="AV9">
-        <v>722316422.29999995</v>
+        <v>743908397.10000002</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.35">
@@ -2135,136 +2135,136 @@
         <v>42391824</v>
       </c>
       <c r="E10">
-        <v>45367509.340000004</v>
+        <v>45367510.539999999</v>
       </c>
       <c r="F10">
-        <v>44962651.219999999</v>
+        <v>44956035.390000001</v>
       </c>
       <c r="G10">
-        <v>43554673.090000004</v>
+        <v>43542122.549999997</v>
       </c>
       <c r="H10">
-        <v>42687489.960000001</v>
+        <v>42672025.270000003</v>
       </c>
       <c r="I10">
-        <v>43573192.530000001</v>
+        <v>43557272.25</v>
       </c>
       <c r="J10">
-        <v>45862589.549999997</v>
+        <v>45847107.609999999</v>
       </c>
       <c r="K10">
-        <v>49246521.200000003</v>
+        <v>49232173.280000001</v>
       </c>
       <c r="L10">
-        <v>53048649.259999998</v>
+        <v>53036074.060000002</v>
       </c>
       <c r="M10">
-        <v>56562529.039999999</v>
+        <v>56551741.509999998</v>
       </c>
       <c r="N10">
-        <v>57191341.090000004</v>
+        <v>57182186.350000001</v>
       </c>
       <c r="O10">
-        <v>57698696.990000002</v>
+        <v>57691344.399999999</v>
       </c>
       <c r="P10">
-        <v>58512295.93</v>
+        <v>58506146.939999998</v>
       </c>
       <c r="Q10">
-        <v>62055673.170000002</v>
+        <v>62050132.090000004</v>
       </c>
       <c r="R10">
-        <v>64794411.960000001</v>
+        <v>64816112.170000002</v>
       </c>
       <c r="S10">
-        <v>68402836.209999904</v>
+        <v>68508241.560000002</v>
       </c>
       <c r="T10">
-        <v>71175591.290000007</v>
+        <v>71411124.189999998</v>
       </c>
       <c r="U10">
-        <v>76574908.659999996</v>
+        <v>76880816.519999996</v>
       </c>
       <c r="V10">
-        <v>80736730.650000006</v>
+        <v>81093814.090000004</v>
       </c>
       <c r="W10">
-        <v>84769616.870000005</v>
+        <v>85083024.640000001</v>
       </c>
       <c r="X10">
-        <v>87441065.030000001</v>
+        <v>87547720.409999996</v>
       </c>
       <c r="Y10">
-        <v>88923632.140000001</v>
+        <v>87973132.980000004</v>
       </c>
       <c r="Z10">
-        <v>89877042.810000002</v>
+        <v>88233426.090000004</v>
       </c>
       <c r="AA10">
-        <v>90739502.590000004</v>
+        <v>88616953.469999999</v>
       </c>
       <c r="AB10">
-        <v>91693526.260000005</v>
+        <v>89186430.370000005</v>
       </c>
       <c r="AC10">
-        <v>92664307.590000004</v>
+        <v>89812402.030000001</v>
       </c>
       <c r="AD10">
-        <v>93315782.019999996</v>
+        <v>90153180.370000005</v>
       </c>
       <c r="AE10">
-        <v>93478716.239999995</v>
+        <v>90051449.379999995</v>
       </c>
       <c r="AF10">
-        <v>93159407.620000005</v>
+        <v>89520884.959999904</v>
       </c>
       <c r="AG10">
-        <v>92479617.790000007</v>
+        <v>88683460.150000006</v>
       </c>
       <c r="AH10">
-        <v>91548468.840000004</v>
+        <v>87642814.329999998</v>
       </c>
       <c r="AI10">
-        <v>90548211.019999996</v>
+        <v>86579067.510000005</v>
       </c>
       <c r="AJ10">
-        <v>89639125.299999997</v>
+        <v>85650878.799999997</v>
       </c>
       <c r="AK10">
-        <v>88860724.549999997</v>
+        <v>84891425.890000001</v>
       </c>
       <c r="AL10">
-        <v>88205214.640000001</v>
+        <v>84289134.510000005</v>
       </c>
       <c r="AM10">
-        <v>87712260.840000004</v>
+        <v>83880711.780000001</v>
       </c>
       <c r="AN10">
-        <v>87377139.700000003</v>
+        <v>83654240.859999999</v>
       </c>
       <c r="AO10">
-        <v>87205153.25</v>
+        <v>83609361.510000005</v>
       </c>
       <c r="AP10">
-        <v>87235087.599999994</v>
+        <v>83779427.599999994</v>
       </c>
       <c r="AQ10">
-        <v>87386272.349999994</v>
+        <v>84076963.359999999</v>
       </c>
       <c r="AR10">
-        <v>87661575.359999999</v>
+        <v>84502458.549999997</v>
       </c>
       <c r="AS10">
-        <v>88126546.310000002</v>
+        <v>85115864.159999996</v>
       </c>
       <c r="AT10">
-        <v>88751057.079999998</v>
+        <v>85879317.950000003</v>
       </c>
       <c r="AU10">
-        <v>89514389.030000001</v>
+        <v>86771701.790000007</v>
       </c>
       <c r="AV10">
-        <v>90369856.359999999</v>
+        <v>87742939.75</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.35">
@@ -2281,136 +2281,136 @@
         <v>661127</v>
       </c>
       <c r="E11">
-        <v>1307140.879</v>
+        <v>1307140.9950000001</v>
       </c>
       <c r="F11">
-        <v>7469370.6710000001</v>
+        <v>7466311.4050000003</v>
       </c>
       <c r="G11">
-        <v>16360499.15</v>
+        <v>16353860.67</v>
       </c>
       <c r="H11">
-        <v>26083690.940000001</v>
+        <v>26073472.75</v>
       </c>
       <c r="I11">
-        <v>36156347.689999998</v>
+        <v>36142712.829999998</v>
       </c>
       <c r="J11">
-        <v>46788994.060000002</v>
+        <v>46771776.799999997</v>
       </c>
       <c r="K11">
-        <v>57815841.960000001</v>
+        <v>57795150.909999996</v>
       </c>
       <c r="L11">
-        <v>69723603.790000007</v>
+        <v>69699751.760000005</v>
       </c>
       <c r="M11">
-        <v>82601395.549999997</v>
+        <v>82574858.200000003</v>
       </c>
       <c r="N11">
-        <v>96798147.349999994</v>
+        <v>96769754.560000002</v>
       </c>
       <c r="O11">
-        <v>111649792.90000001</v>
+        <v>111620329.3</v>
       </c>
       <c r="P11">
-        <v>127557700.8</v>
+        <v>127527834.5</v>
       </c>
       <c r="Q11">
-        <v>144268908.5</v>
+        <v>144239226.40000001</v>
       </c>
       <c r="R11">
-        <v>163241761</v>
+        <v>163218550.59999999</v>
       </c>
       <c r="S11">
-        <v>182932958.09999999</v>
+        <v>182957474.90000001</v>
       </c>
       <c r="T11">
-        <v>205253668.59999999</v>
+        <v>205399866.5</v>
       </c>
       <c r="U11">
-        <v>228433224.19999999</v>
+        <v>228778173.40000001</v>
       </c>
       <c r="V11">
-        <v>253050805.69999999</v>
+        <v>253656290.5</v>
       </c>
       <c r="W11">
-        <v>277858112.80000001</v>
+        <v>278603727.69999999</v>
       </c>
       <c r="X11">
-        <v>303965397.10000002</v>
+        <v>304826801.10000002</v>
       </c>
       <c r="Y11">
-        <v>330792076.60000002</v>
+        <v>331684837.89999998</v>
       </c>
       <c r="Z11">
-        <v>357922300.69999999</v>
+        <v>358490450.80000001</v>
       </c>
       <c r="AA11">
-        <v>385191845.80000001</v>
+        <v>385195836.30000001</v>
       </c>
       <c r="AB11">
-        <v>412604211.30000001</v>
+        <v>411880582.60000002</v>
       </c>
       <c r="AC11">
-        <v>440229217.30000001</v>
+        <v>438652159.80000001</v>
       </c>
       <c r="AD11">
-        <v>468060587</v>
+        <v>465523305.5</v>
       </c>
       <c r="AE11">
-        <v>495986611.39999998</v>
+        <v>492398124.30000001</v>
       </c>
       <c r="AF11">
-        <v>523849145.30000001</v>
+        <v>519136620.30000001</v>
       </c>
       <c r="AG11">
-        <v>551522657.60000002</v>
+        <v>545632570.20000005</v>
       </c>
       <c r="AH11">
-        <v>578883487.10000002</v>
+        <v>571780882.29999995</v>
       </c>
       <c r="AI11">
-        <v>605868553.60000002</v>
+        <v>597534687.89999998</v>
       </c>
       <c r="AJ11">
-        <v>632514581.70000005</v>
+        <v>622945827.39999998</v>
       </c>
       <c r="AK11">
-        <v>658876407.89999998</v>
+        <v>648083409.79999995</v>
       </c>
       <c r="AL11">
-        <v>685011636.60000002</v>
+        <v>673017121.5</v>
       </c>
       <c r="AM11">
-        <v>711008732.60000002</v>
+        <v>697846163.89999998</v>
       </c>
       <c r="AN11">
-        <v>736919646.60000002</v>
+        <v>722632001.5</v>
       </c>
       <c r="AO11">
-        <v>762813163.10000002</v>
+        <v>747450364.89999998</v>
       </c>
       <c r="AP11">
-        <v>788802684.89999998</v>
+        <v>772419677</v>
       </c>
       <c r="AQ11">
-        <v>814934033.10000002</v>
+        <v>797588981.20000005</v>
       </c>
       <c r="AR11">
-        <v>841266723.5</v>
+        <v>823018763.79999995</v>
       </c>
       <c r="AS11">
-        <v>867885632.60000002</v>
+        <v>848793937.20000005</v>
       </c>
       <c r="AT11">
-        <v>894845054.10000002</v>
+        <v>874966823.70000005</v>
       </c>
       <c r="AU11">
-        <v>922206499.39999998</v>
+        <v>901594894.20000005</v>
       </c>
       <c r="AV11">
-        <v>950020493.10000002</v>
+        <v>928723982.89999998</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.35">
@@ -2424,139 +2424,139 @@
         <v>4825.2981717473203</v>
       </c>
       <c r="D12">
-        <v>5000.8254710000001</v>
+        <v>5000.8254699999998</v>
       </c>
       <c r="E12">
-        <v>5745.7942819999998</v>
+        <v>5745.7971159999997</v>
       </c>
       <c r="F12">
-        <v>7786.4467759999998</v>
+        <v>7749.1382400000002</v>
       </c>
       <c r="G12">
-        <v>8785.1361450000004</v>
+        <v>8754.2314640000004</v>
       </c>
       <c r="H12">
-        <v>8007.4023070000003</v>
+        <v>7993.1718490000003</v>
       </c>
       <c r="I12">
-        <v>8735.7379779999901</v>
+        <v>8737.9749630000006</v>
       </c>
       <c r="J12">
-        <v>10311.25447</v>
+        <v>10314.266250000001</v>
       </c>
       <c r="K12">
-        <v>11760.11858</v>
+        <v>11733.61642</v>
       </c>
       <c r="L12">
-        <v>12294.684789999999</v>
+        <v>12290.28369</v>
       </c>
       <c r="M12">
-        <v>11816.80659</v>
+        <v>11860.53505</v>
       </c>
       <c r="N12">
-        <v>9826.6982609999995</v>
+        <v>9922.2049490000009</v>
       </c>
       <c r="O12">
-        <v>9064.8608850000001</v>
+        <v>9143.4766400000008</v>
       </c>
       <c r="P12">
-        <v>10432.183010000001</v>
+        <v>10496.29874</v>
       </c>
       <c r="Q12">
-        <v>14194.87247</v>
+        <v>14169.19778</v>
       </c>
       <c r="R12">
-        <v>15488.39003</v>
+        <v>15444.715249999999</v>
       </c>
       <c r="S12">
-        <v>15844.72683</v>
+        <v>15854.89171</v>
       </c>
       <c r="T12">
-        <v>17088.56583</v>
+        <v>17201.42684</v>
       </c>
       <c r="U12">
-        <v>20336.401279999998</v>
+        <v>20205.68634</v>
       </c>
       <c r="V12">
-        <v>25272.747940000001</v>
+        <v>25092.04623</v>
       </c>
       <c r="W12">
-        <v>31654.157859999999</v>
+        <v>31328.03025</v>
       </c>
       <c r="X12">
-        <v>35654.048470000002</v>
+        <v>35179.174830000004</v>
       </c>
       <c r="Y12">
-        <v>36859.535089999998</v>
+        <v>36245.552150000003</v>
       </c>
       <c r="Z12">
-        <v>36844.06379</v>
+        <v>36084.765350000001</v>
       </c>
       <c r="AA12">
-        <v>36081.070419999996</v>
+        <v>35208.195939999998</v>
       </c>
       <c r="AB12">
-        <v>35206.865250000003</v>
+        <v>34098.461759999998</v>
       </c>
       <c r="AC12">
-        <v>34551.770550000001</v>
+        <v>33269.408239999997</v>
       </c>
       <c r="AD12">
-        <v>33869.124340000002</v>
+        <v>32381.566800000001</v>
       </c>
       <c r="AE12">
-        <v>33193.053879999999</v>
+        <v>31556.801039999998</v>
       </c>
       <c r="AF12">
-        <v>32710.86147</v>
+        <v>30928.04823</v>
       </c>
       <c r="AG12">
-        <v>32215.862349999999</v>
+        <v>30332.003779999999</v>
       </c>
       <c r="AH12">
-        <v>31713.49224</v>
+        <v>29705.67381</v>
       </c>
       <c r="AI12">
-        <v>31408.05054</v>
+        <v>29293.414100000002</v>
       </c>
       <c r="AJ12">
-        <v>31153.756669999999</v>
+        <v>28981.409950000001</v>
       </c>
       <c r="AK12">
-        <v>30913.15177</v>
+        <v>28666.015050000002</v>
       </c>
       <c r="AL12">
-        <v>31690.978709999999</v>
+        <v>29321.62876</v>
       </c>
       <c r="AM12">
-        <v>32076.515429999999</v>
+        <v>29852.074199999999</v>
       </c>
       <c r="AN12">
-        <v>32252.35728</v>
+        <v>29961.384480000001</v>
       </c>
       <c r="AO12">
-        <v>32268.444189999998</v>
+        <v>29912.616870000002</v>
       </c>
       <c r="AP12">
-        <v>32213.3995</v>
+        <v>29798.209910000001</v>
       </c>
       <c r="AQ12">
-        <v>32128.01542</v>
+        <v>29661.324690000001</v>
       </c>
       <c r="AR12">
-        <v>32060.81223</v>
+        <v>29548.365170000001</v>
       </c>
       <c r="AS12">
-        <v>32065.813600000001</v>
+        <v>29503.06697</v>
       </c>
       <c r="AT12">
-        <v>32137.812010000001</v>
+        <v>29516.89158</v>
       </c>
       <c r="AU12">
-        <v>32263.963970000001</v>
+        <v>29576.934229999999</v>
       </c>
       <c r="AV12">
-        <v>32452.607929999998</v>
+        <v>29690.18806</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.35">
@@ -2573,136 +2573,136 @@
         <v>281219.5834</v>
       </c>
       <c r="E13">
-        <v>307140.21460000001</v>
+        <v>307140.26549999998</v>
       </c>
       <c r="F13">
-        <v>390784.16619999998</v>
+        <v>389377.30440000002</v>
       </c>
       <c r="G13">
-        <v>448392.09499999997</v>
+        <v>447210.32419999997</v>
       </c>
       <c r="H13">
-        <v>411012.14120000001</v>
+        <v>410457.84110000002</v>
       </c>
       <c r="I13">
-        <v>450237.86259999999</v>
+        <v>450313.15590000001</v>
       </c>
       <c r="J13">
-        <v>522391.24829999998</v>
+        <v>522144.8371</v>
       </c>
       <c r="K13">
-        <v>599311.99219999998</v>
+        <v>599049.6923</v>
       </c>
       <c r="L13">
-        <v>619395.45880000002</v>
+        <v>619603.89969999995</v>
       </c>
       <c r="M13">
-        <v>589136.15280000004</v>
+        <v>590379.84739999997</v>
       </c>
       <c r="N13">
-        <v>486869.60920000001</v>
+        <v>487905.853</v>
       </c>
       <c r="O13">
-        <v>457213.6018</v>
+        <v>458232.78149999998</v>
       </c>
       <c r="P13">
-        <v>505037.62770000001</v>
+        <v>504124.69420000003</v>
       </c>
       <c r="Q13">
-        <v>677303.78090000001</v>
+        <v>676153.90289999999</v>
       </c>
       <c r="R13">
-        <v>701734.24190000002</v>
+        <v>700486.24170000001</v>
       </c>
       <c r="S13">
-        <v>741420.82319999998</v>
+        <v>745450.58979999996</v>
       </c>
       <c r="T13">
-        <v>762923.48089999997</v>
+        <v>767122.97510000004</v>
       </c>
       <c r="U13">
-        <v>904249.24109999998</v>
+        <v>908781.56689999998</v>
       </c>
       <c r="V13">
-        <v>1123866.429</v>
+        <v>1130158.831</v>
       </c>
       <c r="W13">
-        <v>1319542.243</v>
+        <v>1326905.041</v>
       </c>
       <c r="X13">
-        <v>1450337.088</v>
+        <v>1458130.0859999999</v>
       </c>
       <c r="Y13">
-        <v>1484541.304</v>
+        <v>1492744.58</v>
       </c>
       <c r="Z13">
-        <v>1463296.301</v>
+        <v>1472049.53</v>
       </c>
       <c r="AA13">
-        <v>1407611.25</v>
+        <v>1416872.649</v>
       </c>
       <c r="AB13">
-        <v>1351520.405</v>
+        <v>1359503.912</v>
       </c>
       <c r="AC13">
-        <v>1297019.4010000001</v>
+        <v>1304187.189</v>
       </c>
       <c r="AD13">
-        <v>1244625.22</v>
+        <v>1250205.9410000001</v>
       </c>
       <c r="AE13">
-        <v>1195113.8470000001</v>
+        <v>1199301.1710000001</v>
       </c>
       <c r="AF13">
-        <v>1155179.875</v>
+        <v>1158047.4650000001</v>
       </c>
       <c r="AG13">
-        <v>1115593.3870000001</v>
+        <v>1118349.9850000001</v>
       </c>
       <c r="AH13">
-        <v>1080269.125</v>
+        <v>1081677.2490000001</v>
       </c>
       <c r="AI13">
-        <v>1054717.726</v>
+        <v>1055566.7560000001</v>
       </c>
       <c r="AJ13">
-        <v>1030608.032</v>
+        <v>1032316.632</v>
       </c>
       <c r="AK13">
-        <v>1008718.199</v>
+        <v>1010363.5550000001</v>
       </c>
       <c r="AL13">
-        <v>1024031.736</v>
+        <v>1026312.025</v>
       </c>
       <c r="AM13">
-        <v>1017543.404</v>
+        <v>1028316.383</v>
       </c>
       <c r="AN13">
-        <v>1010545.174</v>
+        <v>1021412.44</v>
       </c>
       <c r="AO13">
-        <v>997747.57339999999</v>
+        <v>1008407.2439999999</v>
       </c>
       <c r="AP13">
-        <v>981840.24109999998</v>
+        <v>992269.55449999997</v>
       </c>
       <c r="AQ13">
-        <v>965382.03749999998</v>
+        <v>975529.11819999898</v>
       </c>
       <c r="AR13">
-        <v>949509.91689999995</v>
+        <v>959395.13970000006</v>
       </c>
       <c r="AS13">
-        <v>935697.23259999999</v>
+        <v>945223.6226</v>
       </c>
       <c r="AT13">
-        <v>923988.30279999995</v>
+        <v>932972.23489999899</v>
       </c>
       <c r="AU13">
-        <v>913644.84730000002</v>
+        <v>921931.96319999895</v>
       </c>
       <c r="AV13">
-        <v>903850.31669999997</v>
+        <v>911273.94</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.35">
@@ -2865,136 +2865,136 @@
         <v>188893454</v>
       </c>
       <c r="E15">
-        <v>180356056.19999999</v>
+        <v>180356056.40000001</v>
       </c>
       <c r="F15">
-        <v>171729621.80000001</v>
+        <v>171729648.5</v>
       </c>
       <c r="G15">
-        <v>163177792</v>
+        <v>163178021.19999999</v>
       </c>
       <c r="H15">
-        <v>155767028</v>
+        <v>155767561.5</v>
       </c>
       <c r="I15">
-        <v>148555894.09999999</v>
+        <v>148556805.59999999</v>
       </c>
       <c r="J15">
-        <v>141058368.19999999</v>
+        <v>141059494</v>
       </c>
       <c r="K15">
-        <v>133295468.2</v>
+        <v>133296354.5</v>
       </c>
       <c r="L15">
-        <v>125936234.3</v>
+        <v>125936692.2</v>
       </c>
       <c r="M15">
-        <v>119441103.59999999</v>
+        <v>119441286.40000001</v>
       </c>
       <c r="N15">
-        <v>114281869.40000001</v>
+        <v>114282605.90000001</v>
       </c>
       <c r="O15">
-        <v>109840043.09999999</v>
+        <v>109842892.5</v>
       </c>
       <c r="P15">
-        <v>105331858</v>
+        <v>105337272.59999999</v>
       </c>
       <c r="Q15">
-        <v>100002544.7</v>
+        <v>100006817.40000001</v>
       </c>
       <c r="R15">
-        <v>94850448.819999903</v>
+        <v>94848040.329999998</v>
       </c>
       <c r="S15">
-        <v>89967771.920000002</v>
+        <v>89949321.969999999</v>
       </c>
       <c r="T15">
-        <v>85325678.540000007</v>
+        <v>85281885.939999998</v>
       </c>
       <c r="U15">
-        <v>80410094.200000003</v>
+        <v>80334977.170000002</v>
       </c>
       <c r="V15">
-        <v>74985117.680000007</v>
+        <v>74871750.870000005</v>
       </c>
       <c r="W15">
-        <v>69204697.329999998</v>
+        <v>69048329.579999998</v>
       </c>
       <c r="X15">
-        <v>63416876.149999999</v>
+        <v>63216428.57</v>
       </c>
       <c r="Y15">
-        <v>58111788.82</v>
+        <v>57868711.109999999</v>
       </c>
       <c r="Z15">
-        <v>53472367.810000002</v>
+        <v>53187292.869999997</v>
       </c>
       <c r="AA15">
-        <v>49509205.659999996</v>
+        <v>49186880.960000001</v>
       </c>
       <c r="AB15">
-        <v>46119136.280000001</v>
+        <v>45764460.450000003</v>
       </c>
       <c r="AC15">
-        <v>43198646.359999999</v>
+        <v>42811871.420000002</v>
       </c>
       <c r="AD15">
-        <v>40648601.630000003</v>
+        <v>40230368.759999998</v>
       </c>
       <c r="AE15">
-        <v>38387866.909999996</v>
+        <v>37939143.340000004</v>
       </c>
       <c r="AF15">
-        <v>36346433.840000004</v>
+        <v>35867992.549999997</v>
       </c>
       <c r="AG15">
-        <v>34487779.840000004</v>
+        <v>33980821.079999998</v>
       </c>
       <c r="AH15">
-        <v>32783753.359999999</v>
+        <v>32250268.41</v>
       </c>
       <c r="AI15">
-        <v>31202605.07</v>
+        <v>30643926.379999999</v>
       </c>
       <c r="AJ15">
-        <v>29731723.5</v>
+        <v>29149342.530000001</v>
       </c>
       <c r="AK15">
-        <v>28363003.699999999</v>
+        <v>27758992.140000001</v>
       </c>
       <c r="AL15">
-        <v>27040116.16</v>
+        <v>26415378.68</v>
       </c>
       <c r="AM15">
-        <v>25788282.09</v>
+        <v>25144056.629999999</v>
       </c>
       <c r="AN15">
-        <v>24614968.960000001</v>
+        <v>23954933.75</v>
       </c>
       <c r="AO15">
-        <v>23521088.120000001</v>
+        <v>22848354.91</v>
       </c>
       <c r="AP15">
-        <v>22503718.739999998</v>
+        <v>21821003.109999999</v>
       </c>
       <c r="AQ15">
-        <v>21557969.850000001</v>
+        <v>20867743.039999999</v>
       </c>
       <c r="AR15">
-        <v>20677790.300000001</v>
+        <v>19982417.91</v>
       </c>
       <c r="AS15">
-        <v>19856524.140000001</v>
+        <v>19158382.23</v>
       </c>
       <c r="AT15">
-        <v>19088619.530000001</v>
+        <v>18390021.609999999</v>
       </c>
       <c r="AU15">
-        <v>18369498.469999999</v>
+        <v>17672626.420000002</v>
       </c>
       <c r="AV15">
-        <v>17695923.870000001</v>
+        <v>17002783.719999999</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.35">
@@ -3011,136 +3011,136 @@
         <v>412154138</v>
       </c>
       <c r="E16">
-        <v>406697165.30000001</v>
+        <v>406697165.39999998</v>
       </c>
       <c r="F16">
-        <v>399866966.39999998</v>
+        <v>400007324.89999998</v>
       </c>
       <c r="G16">
-        <v>392526694.30000001</v>
+        <v>392780700.89999998</v>
       </c>
       <c r="H16">
-        <v>387024261.19999999</v>
+        <v>387326492</v>
       </c>
       <c r="I16">
-        <v>381271397.80000001</v>
+        <v>381565293.80000001</v>
       </c>
       <c r="J16">
-        <v>373968417.60000002</v>
+        <v>374252763.30000001</v>
       </c>
       <c r="K16">
-        <v>365290560.89999998</v>
+        <v>365563754</v>
       </c>
       <c r="L16">
-        <v>356692651</v>
+        <v>356954676.80000001</v>
       </c>
       <c r="M16">
-        <v>349477693.89999998</v>
+        <v>349730321.80000001</v>
       </c>
       <c r="N16">
-        <v>345160806.10000002</v>
+        <v>345408436.19999999</v>
       </c>
       <c r="O16">
-        <v>342377453.69999999</v>
+        <v>342625601.80000001</v>
       </c>
       <c r="P16">
-        <v>338738362.19999999</v>
+        <v>338988872</v>
       </c>
       <c r="Q16">
-        <v>332193379.60000002</v>
+        <v>332434351.80000001</v>
       </c>
       <c r="R16">
-        <v>325400845.5</v>
+        <v>325663617.10000002</v>
       </c>
       <c r="S16">
-        <v>319272926.39999998</v>
+        <v>319470835.19999999</v>
       </c>
       <c r="T16">
-        <v>312955979.30000001</v>
+        <v>313145121.60000002</v>
       </c>
       <c r="U16">
-        <v>305057447.89999998</v>
+        <v>305112025</v>
       </c>
       <c r="V16">
-        <v>294435302.89999998</v>
+        <v>294312736.89999998</v>
       </c>
       <c r="W16">
-        <v>281209099.89999998</v>
+        <v>280877421</v>
       </c>
       <c r="X16">
-        <v>266684383.30000001</v>
+        <v>266124049.69999999</v>
       </c>
       <c r="Y16">
-        <v>252708360.40000001</v>
+        <v>251909097.59999999</v>
       </c>
       <c r="Z16">
-        <v>240140599.90000001</v>
+        <v>239089992.5</v>
       </c>
       <c r="AA16">
-        <v>229227546.69999999</v>
+        <v>227915876.59999999</v>
       </c>
       <c r="AB16">
-        <v>219764929.19999999</v>
+        <v>218203862.40000001</v>
       </c>
       <c r="AC16">
-        <v>211490604</v>
+        <v>209674416.40000001</v>
       </c>
       <c r="AD16">
-        <v>204159715.80000001</v>
+        <v>202086060.19999999</v>
       </c>
       <c r="AE16">
-        <v>197551505.69999999</v>
+        <v>195220150.40000001</v>
       </c>
       <c r="AF16">
-        <v>191439676.09999999</v>
+        <v>188861154</v>
       </c>
       <c r="AG16">
-        <v>185733216.30000001</v>
+        <v>182913409.30000001</v>
       </c>
       <c r="AH16">
-        <v>180356187.69999999</v>
+        <v>177312181.90000001</v>
       </c>
       <c r="AI16">
-        <v>175190228.5</v>
+        <v>171933140.30000001</v>
       </c>
       <c r="AJ16">
-        <v>170206517.90000001</v>
+        <v>166740297.59999999</v>
       </c>
       <c r="AK16">
-        <v>165394487.5</v>
+        <v>161732555.09999999</v>
       </c>
       <c r="AL16">
-        <v>160473659</v>
+        <v>156624979</v>
       </c>
       <c r="AM16">
-        <v>155606353.69999999</v>
+        <v>151536440.30000001</v>
       </c>
       <c r="AN16">
-        <v>150845595.30000001</v>
+        <v>146583931.80000001</v>
       </c>
       <c r="AO16">
-        <v>146223208.19999999</v>
+        <v>141793286.40000001</v>
       </c>
       <c r="AP16">
-        <v>141752056.40000001</v>
+        <v>137173662.19999999</v>
       </c>
       <c r="AQ16">
-        <v>137432845.19999999</v>
+        <v>132723685.09999999</v>
       </c>
       <c r="AR16">
-        <v>133257967.8</v>
+        <v>128434240.59999999</v>
       </c>
       <c r="AS16">
-        <v>129211296.5</v>
+        <v>124288932.3</v>
       </c>
       <c r="AT16">
-        <v>125281221.3</v>
+        <v>120275943.7</v>
       </c>
       <c r="AU16">
-        <v>121460800.40000001</v>
+        <v>116387781.5</v>
       </c>
       <c r="AV16">
-        <v>117749046.5</v>
+        <v>112622792.09999999</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.35">
@@ -3157,136 +3157,136 @@
         <v>786713699</v>
       </c>
       <c r="E17">
-        <v>775752929.70000005</v>
+        <v>775752928.5</v>
       </c>
       <c r="F17">
-        <v>763634184.5</v>
+        <v>763634068.89999998</v>
       </c>
       <c r="G17">
-        <v>751081528.29999995</v>
+        <v>751081007.89999998</v>
       </c>
       <c r="H17">
-        <v>741789323.29999995</v>
+        <v>741787661.20000005</v>
       </c>
       <c r="I17">
-        <v>732144202.79999995</v>
+        <v>732141570.10000002</v>
       </c>
       <c r="J17">
-        <v>720326508.70000005</v>
+        <v>720322839</v>
       </c>
       <c r="K17">
-        <v>706445693.10000002</v>
+        <v>706439969.89999998</v>
       </c>
       <c r="L17">
-        <v>692757253</v>
+        <v>692749075.29999995</v>
       </c>
       <c r="M17">
-        <v>681337223.10000002</v>
+        <v>681327627.60000002</v>
       </c>
       <c r="N17">
-        <v>674989068.60000002</v>
+        <v>674981613</v>
       </c>
       <c r="O17">
-        <v>671081004.29999995</v>
+        <v>671083129.79999995</v>
       </c>
       <c r="P17">
-        <v>665559070</v>
+        <v>665573898</v>
       </c>
       <c r="Q17">
-        <v>654568627.89999998</v>
+        <v>654576536.5</v>
       </c>
       <c r="R17">
-        <v>643175086.79999995</v>
+        <v>643139617.39999998</v>
       </c>
       <c r="S17">
-        <v>632315604.39999998</v>
+        <v>632169617.89999998</v>
       </c>
       <c r="T17">
-        <v>621286154.39999998</v>
+        <v>620967372.79999995</v>
       </c>
       <c r="U17">
-        <v>606887093.70000005</v>
+        <v>606339464.10000002</v>
       </c>
       <c r="V17">
-        <v>587394618.5</v>
+        <v>586547527.5</v>
       </c>
       <c r="W17">
-        <v>563108314.29999995</v>
+        <v>561944064.29999995</v>
       </c>
       <c r="X17">
-        <v>536752344.60000002</v>
+        <v>535194043</v>
       </c>
       <c r="Y17">
-        <v>511715970.80000001</v>
+        <v>509740587.89999998</v>
       </c>
       <c r="Z17">
-        <v>489394742.89999998</v>
+        <v>487020232.69999999</v>
       </c>
       <c r="AA17">
-        <v>470189330.80000001</v>
+        <v>467441317.69999999</v>
       </c>
       <c r="AB17">
-        <v>453750317.19999999</v>
+        <v>450647903.69999999</v>
       </c>
       <c r="AC17">
-        <v>439523644.89999998</v>
+        <v>436035930.19999999</v>
       </c>
       <c r="AD17">
-        <v>427023464.89999998</v>
+        <v>423135688</v>
       </c>
       <c r="AE17">
-        <v>415807066.69999999</v>
+        <v>411512992.69999999</v>
       </c>
       <c r="AF17">
-        <v>405414381.80000001</v>
+        <v>400739800.5</v>
       </c>
       <c r="AG17">
-        <v>395676647.30000001</v>
+        <v>390626607</v>
       </c>
       <c r="AH17">
-        <v>386469660</v>
+        <v>381077248.69999999</v>
       </c>
       <c r="AI17">
-        <v>377572435</v>
+        <v>371856834.19999999</v>
       </c>
       <c r="AJ17">
-        <v>368937830.5</v>
+        <v>362897524.69999999</v>
       </c>
       <c r="AK17">
-        <v>360566446.89999998</v>
+        <v>354223187.30000001</v>
       </c>
       <c r="AL17">
-        <v>351877321</v>
+        <v>345244298.39999998</v>
       </c>
       <c r="AM17">
-        <v>343174076.10000002</v>
+        <v>336141599.80000001</v>
       </c>
       <c r="AN17">
-        <v>334639391</v>
+        <v>327266858.69999999</v>
       </c>
       <c r="AO17">
-        <v>326346882.89999998</v>
+        <v>318678104.60000002</v>
       </c>
       <c r="AP17">
-        <v>318324480.80000001</v>
+        <v>310394367</v>
       </c>
       <c r="AQ17">
-        <v>310571617.10000002</v>
+        <v>302410279.5</v>
       </c>
       <c r="AR17">
-        <v>303068464.5</v>
+        <v>294702217.69999999</v>
       </c>
       <c r="AS17">
-        <v>295777978.89999998</v>
+        <v>287233092.30000001</v>
       </c>
       <c r="AT17">
-        <v>288672743.60000002</v>
+        <v>279975851.10000002</v>
       </c>
       <c r="AU17">
-        <v>281735560.89999998</v>
+        <v>272912778.30000001</v>
       </c>
       <c r="AV17">
-        <v>274963285.30000001</v>
+        <v>266039956.19999999</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.35">
@@ -3303,136 +3303,136 @@
         <v>661409532</v>
       </c>
       <c r="E18">
-        <v>682011878</v>
+        <v>682011874.10000002</v>
       </c>
       <c r="F18">
-        <v>703218362.20000005</v>
+        <v>703147479.79999995</v>
       </c>
       <c r="G18">
-        <v>724361947.10000002</v>
+        <v>724234990.20000005</v>
       </c>
       <c r="H18">
-        <v>742741995.89999998</v>
+        <v>742592928.89999998</v>
       </c>
       <c r="I18">
-        <v>760619619</v>
+        <v>760477911</v>
       </c>
       <c r="J18">
-        <v>779512252.5</v>
+        <v>779378157</v>
       </c>
       <c r="K18">
-        <v>798961358</v>
+        <v>798834499.60000002</v>
       </c>
       <c r="L18">
-        <v>817010021.89999998</v>
+        <v>816893722.79999995</v>
       </c>
       <c r="M18">
-        <v>832337415.20000005</v>
+        <v>832233855.89999998</v>
       </c>
       <c r="N18">
-        <v>838472816.10000002</v>
+        <v>838379182.60000002</v>
       </c>
       <c r="O18">
-        <v>841911996</v>
+        <v>841822910.10000002</v>
       </c>
       <c r="P18">
-        <v>845596330.70000005</v>
+        <v>845509267.70000005</v>
       </c>
       <c r="Q18">
-        <v>848900327.29999995</v>
+        <v>848807003.5</v>
       </c>
       <c r="R18">
-        <v>851423733.5</v>
+        <v>851291110.89999998</v>
       </c>
       <c r="S18">
-        <v>850742810.39999998</v>
+        <v>850582027.70000005</v>
       </c>
       <c r="T18">
-        <v>848965214.5</v>
+        <v>848702505.10000002</v>
       </c>
       <c r="U18">
-        <v>846499028</v>
+        <v>846181802.89999998</v>
       </c>
       <c r="V18">
-        <v>839286156.79999995</v>
+        <v>838909459.70000005</v>
       </c>
       <c r="W18">
-        <v>829641296</v>
+        <v>829181516.89999998</v>
       </c>
       <c r="X18">
-        <v>818389147.39999998</v>
+        <v>817871757.29999995</v>
       </c>
       <c r="Y18">
-        <v>805623573.79999995</v>
+        <v>805056624.79999995</v>
       </c>
       <c r="Z18">
-        <v>791706190.70000005</v>
+        <v>791087211.60000002</v>
       </c>
       <c r="AA18">
-        <v>777205697.89999998</v>
+        <v>776513975.10000002</v>
       </c>
       <c r="AB18">
-        <v>762229210.70000005</v>
+        <v>761626685.20000005</v>
       </c>
       <c r="AC18">
-        <v>747283904</v>
+        <v>746811552.60000002</v>
       </c>
       <c r="AD18">
-        <v>732687355.70000005</v>
+        <v>732390836.60000002</v>
       </c>
       <c r="AE18">
-        <v>718658272.60000002</v>
+        <v>718564201.60000002</v>
       </c>
       <c r="AF18">
-        <v>705161902.20000005</v>
+        <v>705268501.10000002</v>
       </c>
       <c r="AG18">
-        <v>692354414.5</v>
+        <v>692626317.10000002</v>
       </c>
       <c r="AH18">
-        <v>680042569.20000005</v>
+        <v>680470640.29999995</v>
       </c>
       <c r="AI18">
-        <v>667975983.20000005</v>
+        <v>668527799.89999998</v>
       </c>
       <c r="AJ18">
-        <v>656197735.89999998</v>
+        <v>656815022.89999998</v>
       </c>
       <c r="AK18">
-        <v>644627633.5</v>
+        <v>645275249.60000002</v>
       </c>
       <c r="AL18">
-        <v>632449720.89999998</v>
+        <v>633053016.20000005</v>
       </c>
       <c r="AM18">
-        <v>620149083.70000005</v>
+        <v>620524371.10000002</v>
       </c>
       <c r="AN18">
-        <v>607759481.20000005</v>
+        <v>607900280.10000002</v>
       </c>
       <c r="AO18">
-        <v>595407074.79999995</v>
+        <v>595295126.10000002</v>
       </c>
       <c r="AP18">
-        <v>583204995.60000002</v>
+        <v>582817090.20000005</v>
       </c>
       <c r="AQ18">
-        <v>571108267.89999998</v>
+        <v>570414465.70000005</v>
       </c>
       <c r="AR18">
-        <v>559104544.10000002</v>
+        <v>558074456.10000002</v>
       </c>
       <c r="AS18">
-        <v>547168361.79999995</v>
+        <v>545776754.29999995</v>
       </c>
       <c r="AT18">
-        <v>535247679.69999999</v>
+        <v>533476006.80000001</v>
       </c>
       <c r="AU18">
-        <v>523323436.60000002</v>
+        <v>521159734.80000001</v>
       </c>
       <c r="AV18">
-        <v>511778610.69999999</v>
+        <v>509213767.69999999</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.35">
@@ -3449,136 +3449,136 @@
         <v>300942006</v>
       </c>
       <c r="E19">
-        <v>326250386.5</v>
+        <v>326250389.89999998</v>
       </c>
       <c r="F19">
-        <v>351691598.19999999</v>
+        <v>351631886.30000001</v>
       </c>
       <c r="G19">
-        <v>376594305.80000001</v>
+        <v>376486736.30000001</v>
       </c>
       <c r="H19">
-        <v>396905949.30000001</v>
+        <v>396779597.10000002</v>
       </c>
       <c r="I19">
-        <v>416290184.30000001</v>
+        <v>416160731.80000001</v>
       </c>
       <c r="J19">
-        <v>436931317.60000002</v>
+        <v>436835651</v>
       </c>
       <c r="K19">
-        <v>459500252.30000001</v>
+        <v>459437010.60000002</v>
       </c>
       <c r="L19">
-        <v>481790986.39999998</v>
+        <v>481728405</v>
       </c>
       <c r="M19">
-        <v>501975815.39999998</v>
+        <v>501809308.60000002</v>
       </c>
       <c r="N19">
-        <v>512587285</v>
+        <v>512272006.60000002</v>
       </c>
       <c r="O19">
-        <v>520831079.80000001</v>
+        <v>520289198.80000001</v>
       </c>
       <c r="P19">
-        <v>530008903.39999998</v>
+        <v>529325125</v>
       </c>
       <c r="Q19">
-        <v>543741783.79999995</v>
+        <v>542978294.70000005</v>
       </c>
       <c r="R19">
-        <v>556840860.5</v>
+        <v>556101112.89999998</v>
       </c>
       <c r="S19">
-        <v>569341513.70000005</v>
+        <v>568601983.29999995</v>
       </c>
       <c r="T19">
-        <v>580655212.20000005</v>
+        <v>580023806.70000005</v>
       </c>
       <c r="U19">
-        <v>596106149.89999998</v>
+        <v>595664040.10000002</v>
       </c>
       <c r="V19">
-        <v>615027099.39999998</v>
+        <v>614805688.20000005</v>
       </c>
       <c r="W19">
-        <v>636974969.70000005</v>
+        <v>636962636.89999998</v>
       </c>
       <c r="X19">
-        <v>660899988.89999998</v>
+        <v>661068012.60000002</v>
       </c>
       <c r="Y19">
-        <v>683399605.60000002</v>
+        <v>683691557.39999998</v>
       </c>
       <c r="Z19">
-        <v>702181734.89999998</v>
+        <v>702559918.60000002</v>
       </c>
       <c r="AA19">
-        <v>716388921.89999998</v>
+        <v>716815057.89999998</v>
       </c>
       <c r="AB19">
-        <v>726578125.10000002</v>
+        <v>727018138.39999998</v>
       </c>
       <c r="AC19">
-        <v>733130131.89999998</v>
+        <v>733693276</v>
       </c>
       <c r="AD19">
-        <v>736818708.10000002</v>
+        <v>737639027</v>
       </c>
       <c r="AE19">
-        <v>738346206.70000005</v>
+        <v>739538468.70000005</v>
       </c>
       <c r="AF19">
-        <v>738305274.5</v>
+        <v>739950719.5</v>
       </c>
       <c r="AG19">
-        <v>737141829.5</v>
+        <v>739249134.79999995</v>
       </c>
       <c r="AH19">
-        <v>735022876.39999998</v>
+        <v>737642891.5</v>
       </c>
       <c r="AI19">
-        <v>732158096.5</v>
+        <v>735315900.89999998</v>
       </c>
       <c r="AJ19">
-        <v>728753052</v>
+        <v>732412760.60000002</v>
       </c>
       <c r="AK19">
-        <v>724850403.39999998</v>
+        <v>729023726.70000005</v>
       </c>
       <c r="AL19">
-        <v>720629963.79999995</v>
+        <v>725314637.20000005</v>
       </c>
       <c r="AM19">
-        <v>716128912.79999995</v>
+        <v>720994590.39999998</v>
       </c>
       <c r="AN19">
-        <v>711187802.39999998</v>
+        <v>716299569.39999998</v>
       </c>
       <c r="AO19">
-        <v>705808102.70000005</v>
+        <v>711201744.60000002</v>
       </c>
       <c r="AP19">
-        <v>700067069.20000005</v>
+        <v>705755263</v>
       </c>
       <c r="AQ19">
-        <v>693906888.79999995</v>
+        <v>699885171.70000005</v>
       </c>
       <c r="AR19">
-        <v>687346467</v>
+        <v>693600419.10000002</v>
       </c>
       <c r="AS19">
-        <v>680437572</v>
+        <v>686952122.79999995</v>
       </c>
       <c r="AT19">
-        <v>673164360.70000005</v>
+        <v>679927599.29999995</v>
       </c>
       <c r="AU19">
-        <v>665538883.5</v>
+        <v>672540353.70000005</v>
       </c>
       <c r="AV19">
-        <v>657572632.89999998</v>
+        <v>664804101.79999995</v>
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.35">
@@ -3595,136 +3595,136 @@
         <v>42391824</v>
       </c>
       <c r="E20">
-        <v>45367509.340000004</v>
+        <v>45367510.539999999</v>
       </c>
       <c r="F20">
-        <v>44962651.219999999</v>
+        <v>44956035.390000001</v>
       </c>
       <c r="G20">
-        <v>43554673.090000004</v>
+        <v>43542122.549999997</v>
       </c>
       <c r="H20">
-        <v>42687489.960000001</v>
+        <v>42672025.270000003</v>
       </c>
       <c r="I20">
-        <v>43565149.57</v>
+        <v>43557272.25</v>
       </c>
       <c r="J20">
-        <v>45907591.920000002</v>
+        <v>45847107.609999999</v>
       </c>
       <c r="K20">
-        <v>49196279.009999998</v>
+        <v>49232173.280000001</v>
       </c>
       <c r="L20">
-        <v>52959535.090000004</v>
+        <v>53036074.060000002</v>
       </c>
       <c r="M20">
-        <v>56486253.689999998</v>
+        <v>56551741.509999998</v>
       </c>
       <c r="N20">
-        <v>57290278.939999998</v>
+        <v>57182186.350000001</v>
       </c>
       <c r="O20">
-        <v>57797565.439999998</v>
+        <v>57691344.399999999</v>
       </c>
       <c r="P20">
-        <v>58697777.159999996</v>
+        <v>58506146.939999998</v>
       </c>
       <c r="Q20">
-        <v>61957147.770000003</v>
+        <v>62050132.090000004</v>
       </c>
       <c r="R20">
-        <v>64602263</v>
+        <v>64816112.170000002</v>
       </c>
       <c r="S20">
-        <v>68056039.659999996</v>
+        <v>68508241.560000002</v>
       </c>
       <c r="T20">
-        <v>71383623.920000002</v>
+        <v>71411124.189999998</v>
       </c>
       <c r="U20">
-        <v>76350102.310000002</v>
+        <v>76817123.170000002</v>
       </c>
       <c r="V20">
-        <v>84566763.909999996</v>
+        <v>85377655.920000002</v>
       </c>
       <c r="W20">
-        <v>94521699.420000002</v>
+        <v>95587879.769999996</v>
       </c>
       <c r="X20">
-        <v>103769564</v>
+        <v>105060872.7</v>
       </c>
       <c r="Y20">
-        <v>110992297.09999999</v>
+        <v>112496967.7</v>
       </c>
       <c r="Z20">
-        <v>116327270.2</v>
+        <v>118035520.90000001</v>
       </c>
       <c r="AA20">
-        <v>119880692</v>
+        <v>121761745.59999999</v>
       </c>
       <c r="AB20">
-        <v>122231641.7</v>
+        <v>124267020</v>
       </c>
       <c r="AC20">
-        <v>123718572.59999999</v>
+        <v>125869055.3</v>
       </c>
       <c r="AD20">
-        <v>124303382.40000001</v>
+        <v>126542010.40000001</v>
       </c>
       <c r="AE20">
-        <v>124080210.2</v>
+        <v>126293855.3</v>
       </c>
       <c r="AF20">
-        <v>123461954.09999999</v>
+        <v>125544406.8</v>
       </c>
       <c r="AG20">
-        <v>122466823.59999999</v>
+        <v>124476089.5</v>
       </c>
       <c r="AH20">
-        <v>121170211.59999999</v>
+        <v>123033985</v>
       </c>
       <c r="AI20">
-        <v>119889643.8</v>
+        <v>121620755</v>
       </c>
       <c r="AJ20">
-        <v>118635789.09999999</v>
+        <v>120355867.59999999</v>
       </c>
       <c r="AK20">
-        <v>117385856.2</v>
+        <v>119072515.5</v>
       </c>
       <c r="AL20">
-        <v>117395862.90000001</v>
+        <v>119087076</v>
       </c>
       <c r="AM20">
-        <v>117442705.5</v>
+        <v>119779314.5</v>
       </c>
       <c r="AN20">
-        <v>117289318.09999999</v>
+        <v>119903077.90000001</v>
       </c>
       <c r="AO20">
-        <v>116785030.5</v>
+        <v>119483488.5</v>
       </c>
       <c r="AP20">
-        <v>116027198.09999999</v>
+        <v>118720868.40000001</v>
       </c>
       <c r="AQ20">
-        <v>115067899</v>
+        <v>117728021.8</v>
       </c>
       <c r="AR20">
-        <v>114025345.7</v>
+        <v>116648859.8</v>
       </c>
       <c r="AS20">
-        <v>113041341.09999999</v>
+        <v>115622238.3</v>
       </c>
       <c r="AT20">
-        <v>112130050.09999999</v>
+        <v>114654869.8</v>
       </c>
       <c r="AU20">
-        <v>111292391.7</v>
+        <v>113745917.5</v>
       </c>
       <c r="AV20">
-        <v>110497987</v>
+        <v>112863173.90000001</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.35">
@@ -3741,136 +3741,136 @@
         <v>661127</v>
       </c>
       <c r="E21">
-        <v>1307140.879</v>
+        <v>1307140.9950000001</v>
       </c>
       <c r="F21">
-        <v>7469370.6710000001</v>
+        <v>7466311.4050000003</v>
       </c>
       <c r="G21">
-        <v>16360499.15</v>
+        <v>16353860.67</v>
       </c>
       <c r="H21">
-        <v>26083690.940000001</v>
+        <v>26073472.75</v>
       </c>
       <c r="I21">
-        <v>36155849.700000003</v>
+        <v>36142712.829999998</v>
       </c>
       <c r="J21">
-        <v>46763332.119999997</v>
+        <v>46771776.799999997</v>
       </c>
       <c r="K21">
-        <v>57909301.359999999</v>
+        <v>57795150.909999996</v>
       </c>
       <c r="L21">
-        <v>69851716.219999999</v>
+        <v>69699751.760000005</v>
       </c>
       <c r="M21">
-        <v>82613495.189999998</v>
+        <v>82574858.200000003</v>
       </c>
       <c r="N21">
-        <v>96493661.200000003</v>
+        <v>96769754.560000002</v>
       </c>
       <c r="O21">
-        <v>111136264.40000001</v>
+        <v>111620329.3</v>
       </c>
       <c r="P21">
-        <v>126836115.3</v>
+        <v>127527834.5</v>
       </c>
       <c r="Q21">
-        <v>143728551.5</v>
+        <v>144239226.40000001</v>
       </c>
       <c r="R21">
-        <v>162784923.19999999</v>
+        <v>163218550.59999999</v>
       </c>
       <c r="S21">
-        <v>182542835.90000001</v>
+        <v>182957474.90000001</v>
       </c>
       <c r="T21">
-        <v>204359819.90000001</v>
+        <v>205399866.5</v>
       </c>
       <c r="U21">
-        <v>227904939.90000001</v>
+        <v>228765423.59999999</v>
       </c>
       <c r="V21">
-        <v>253328387</v>
+        <v>254198627.09999999</v>
       </c>
       <c r="W21">
-        <v>283741684</v>
+        <v>284799912.19999999</v>
       </c>
       <c r="X21">
-        <v>317557688.5</v>
+        <v>318934829.10000002</v>
       </c>
       <c r="Y21">
-        <v>353634584.69999999</v>
+        <v>355422634.80000001</v>
       </c>
       <c r="Z21">
-        <v>391488995.39999998</v>
+        <v>393731732.5</v>
       </c>
       <c r="AA21">
-        <v>430522561.5</v>
+        <v>433289102.69999999</v>
       </c>
       <c r="AB21">
-        <v>470106865.39999998</v>
+        <v>473252155.5</v>
       </c>
       <c r="AC21">
-        <v>510138321.60000002</v>
+        <v>513587723.60000002</v>
       </c>
       <c r="AD21">
-        <v>550270013.10000002</v>
+        <v>553887250.70000005</v>
       </c>
       <c r="AE21">
-        <v>590189225.79999995</v>
+        <v>593951542.5</v>
       </c>
       <c r="AF21">
-        <v>629680276.89999998</v>
+        <v>633577325</v>
       </c>
       <c r="AG21">
-        <v>668664611.89999998</v>
+        <v>672652944.20000005</v>
       </c>
       <c r="AH21">
-        <v>707032851.60000002</v>
+        <v>711090894</v>
       </c>
       <c r="AI21">
-        <v>744754173</v>
+        <v>748844808.5</v>
       </c>
       <c r="AJ21">
-        <v>781903603</v>
+        <v>785995435.89999998</v>
       </c>
       <c r="AK21">
-        <v>818517261</v>
+        <v>822618865.79999995</v>
       </c>
       <c r="AL21">
-        <v>854809171.20000005</v>
+        <v>858936429.60000002</v>
       </c>
       <c r="AM21">
-        <v>891153322.70000005</v>
+        <v>895322363.89999998</v>
       </c>
       <c r="AN21">
-        <v>927502559.60000002</v>
+        <v>931930464.89999998</v>
       </c>
       <c r="AO21">
-        <v>963772144.60000002</v>
+        <v>968563426.79999995</v>
       </c>
       <c r="AP21">
-        <v>999884598.29999995</v>
+        <v>1005081863</v>
       </c>
       <c r="AQ21">
-        <v>1035728328</v>
+        <v>1041344449</v>
       </c>
       <c r="AR21">
-        <v>1071252639</v>
+        <v>1077290608</v>
       </c>
       <c r="AS21">
-        <v>1106473557</v>
+        <v>1112935109</v>
       </c>
       <c r="AT21">
-        <v>1141405296</v>
+        <v>1148289679</v>
       </c>
       <c r="AU21">
-        <v>1176081876</v>
+        <v>1183383256</v>
       </c>
       <c r="AV21">
-        <v>1210532337</v>
+        <v>1218238870</v>
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.35">
@@ -3887,55 +3887,55 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1009.017533</v>
+        <v>1009.01803</v>
       </c>
       <c r="F22">
-        <v>1367.376019</v>
+        <v>1360.8242760000001</v>
       </c>
       <c r="G22">
-        <v>1405.6217830000001</v>
+        <v>1400.677034</v>
       </c>
       <c r="H22">
-        <v>1121.036323</v>
+        <v>1119.0440590000001</v>
       </c>
       <c r="I22">
-        <v>1334.7139520000001</v>
+        <v>1334.839839</v>
       </c>
       <c r="J22">
-        <v>1109.7602300000001</v>
+        <v>1109.890214</v>
       </c>
       <c r="K22">
-        <v>1453.2731040000001</v>
+        <v>1453.495449</v>
       </c>
       <c r="L22">
-        <v>1957.6533669999999</v>
+        <v>1958.0098210000001</v>
       </c>
       <c r="M22">
-        <v>2587.5735960000002</v>
+        <v>2588.0879450000002</v>
       </c>
       <c r="N22">
-        <v>2143.9933019999999</v>
+        <v>2144.4033770000001</v>
       </c>
       <c r="O22">
-        <v>2610.2429080000002</v>
+        <v>2610.7416349999999</v>
       </c>
       <c r="P22">
-        <v>2613.3042759999998</v>
+        <v>2613.6125240000001</v>
       </c>
       <c r="Q22">
-        <v>4791.225332</v>
+        <v>4791.5213400000002</v>
       </c>
       <c r="R22">
-        <v>4325.810426</v>
+        <v>4322.5481440000003</v>
       </c>
       <c r="S22">
-        <v>6213.2071020000003</v>
+        <v>6214.6078440000001</v>
       </c>
       <c r="T22">
-        <v>5546.5243600000003</v>
+        <v>5546.592807</v>
       </c>
       <c r="U22">
-        <v>6033.9763549999998</v>
+        <v>6030.4584949999999</v>
       </c>
       <c r="V22">
         <v>3306.304717</v>
@@ -4033,136 +4033,136 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1009.017533</v>
+        <v>1009.01803</v>
       </c>
       <c r="F23">
-        <v>1367.376019</v>
+        <v>1360.8242760000001</v>
       </c>
       <c r="G23">
-        <v>1405.6217830000001</v>
+        <v>1400.677034</v>
       </c>
       <c r="H23">
-        <v>1121.036323</v>
+        <v>1119.0440590000001</v>
       </c>
       <c r="I23">
-        <v>1318.1021249999999</v>
+        <v>1334.839839</v>
       </c>
       <c r="J23">
-        <v>1175.600234</v>
+        <v>1109.890214</v>
       </c>
       <c r="K23">
-        <v>1483.8033740000001</v>
+        <v>1453.495449</v>
       </c>
       <c r="L23">
-        <v>1901.548894</v>
+        <v>1958.0098210000001</v>
       </c>
       <c r="M23">
-        <v>2343.0748859999999</v>
+        <v>2588.0879450000002</v>
       </c>
       <c r="N23">
-        <v>1918.812369</v>
+        <v>2144.4033770000001</v>
       </c>
       <c r="O23">
-        <v>2313.5049990000002</v>
+        <v>2610.7416349999999</v>
       </c>
       <c r="P23">
-        <v>2557.7066009999999</v>
+        <v>2613.6125240000001</v>
       </c>
       <c r="Q23">
-        <v>4709.446543</v>
+        <v>4791.5213400000002</v>
       </c>
       <c r="R23">
-        <v>4328.7294769999999</v>
+        <v>4322.5481440000003</v>
       </c>
       <c r="S23">
-        <v>5811.2729040000004</v>
+        <v>6214.6078440000001</v>
       </c>
       <c r="T23">
-        <v>5531.0515869999999</v>
+        <v>5546.592807</v>
       </c>
       <c r="U23">
-        <v>5978.2859779999999</v>
+        <v>5960.286231</v>
       </c>
       <c r="V23">
-        <v>9292.5752599999996</v>
+        <v>9263.9709000000003</v>
       </c>
       <c r="W23">
-        <v>11162.43792</v>
+        <v>11108.37422</v>
       </c>
       <c r="X23">
-        <v>11408.01211</v>
+        <v>11329.29009</v>
       </c>
       <c r="Y23">
-        <v>11318.786539999999</v>
+        <v>11217.003710000001</v>
       </c>
       <c r="Z23">
-        <v>11272.09676</v>
+        <v>11146.2243</v>
       </c>
       <c r="AA23">
-        <v>10595.28162</v>
+        <v>10450.58113</v>
       </c>
       <c r="AB23">
-        <v>10504.35009</v>
+        <v>10320.60485</v>
       </c>
       <c r="AC23">
-        <v>10270.860559999999</v>
+        <v>10058.27736</v>
       </c>
       <c r="AD23">
-        <v>10018.910900000001</v>
+        <v>9772.311522</v>
       </c>
       <c r="AE23">
-        <v>9813.2668169999997</v>
+        <v>9542.0175220000001</v>
       </c>
       <c r="AF23">
-        <v>9926.8170100000007</v>
+        <v>9631.2717140000004</v>
       </c>
       <c r="AG23">
-        <v>9720.9819950000001</v>
+        <v>9408.6859409999997</v>
       </c>
       <c r="AH23">
-        <v>9547.7560520000006</v>
+        <v>9214.9105930000005</v>
       </c>
       <c r="AI23">
-        <v>9682.5385029999998</v>
+        <v>9331.9853210000001</v>
       </c>
       <c r="AJ23">
-        <v>9576.8410590000003</v>
+        <v>9216.7209750000002</v>
       </c>
       <c r="AK23">
-        <v>9458.3139250000004</v>
+        <v>9085.7955519999996</v>
       </c>
       <c r="AL23">
-        <v>11387.30156</v>
+        <v>10913.43158</v>
       </c>
       <c r="AM23">
-        <v>11330.15047</v>
+        <v>10885.262220000001</v>
       </c>
       <c r="AN23">
-        <v>11245.09411</v>
+        <v>10786.89955</v>
       </c>
       <c r="AO23">
-        <v>11141.707189999999</v>
+        <v>10670.541730000001</v>
       </c>
       <c r="AP23">
-        <v>11037.22925</v>
+        <v>10554.19133</v>
       </c>
       <c r="AQ23">
-        <v>10939.257460000001</v>
+        <v>10445.919309999999</v>
       </c>
       <c r="AR23">
-        <v>10853.76204</v>
+        <v>10351.272629999999</v>
       </c>
       <c r="AS23">
-        <v>10790.63508</v>
+        <v>10278.08575</v>
       </c>
       <c r="AT23">
-        <v>10751.041730000001</v>
+        <v>10226.85764</v>
       </c>
       <c r="AU23">
-        <v>10731.49323</v>
+        <v>10194.08728</v>
       </c>
       <c r="AV23">
-        <v>10729.28967</v>
+        <v>10176.805700000001</v>
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.35">
@@ -4179,55 +4179,55 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1009.017533</v>
+        <v>1009.01803</v>
       </c>
       <c r="F24">
-        <v>1367.376019</v>
+        <v>1360.8242760000001</v>
       </c>
       <c r="G24">
-        <v>1405.6217830000001</v>
+        <v>1400.677034</v>
       </c>
       <c r="H24">
-        <v>1121.036323</v>
+        <v>1119.0440590000001</v>
       </c>
       <c r="I24">
-        <v>1079.2200130000001</v>
+        <v>1079.3459</v>
       </c>
       <c r="J24">
-        <v>859.16655319999995</v>
+        <v>859.29653689999998</v>
       </c>
       <c r="K24">
-        <v>1207.156657</v>
+        <v>1207.379001</v>
       </c>
       <c r="L24">
-        <v>1693.288955</v>
+        <v>1693.645409</v>
       </c>
       <c r="M24">
-        <v>2384.4782799999998</v>
+        <v>2384.9926289999999</v>
       </c>
       <c r="N24">
-        <v>1807.3024419999999</v>
+        <v>1807.712518</v>
       </c>
       <c r="O24">
-        <v>1813.2088920000001</v>
+        <v>1813.707619</v>
       </c>
       <c r="P24">
-        <v>1345.3474920000001</v>
+        <v>1345.655739</v>
       </c>
       <c r="Q24">
-        <v>1929.8019730000001</v>
+        <v>1930.0979809999999</v>
       </c>
       <c r="R24">
-        <v>1780.42488</v>
+        <v>1777.162597</v>
       </c>
       <c r="S24">
-        <v>3097.6023220000002</v>
+        <v>3099.003064</v>
       </c>
       <c r="T24">
-        <v>2368.607485</v>
+        <v>2368.6759320000001</v>
       </c>
       <c r="U24">
-        <v>2792.5011420000001</v>
+        <v>2788.9832820000001</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -4325,136 +4325,136 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1009.017533</v>
+        <v>1009.01803</v>
       </c>
       <c r="F25">
-        <v>1367.376019</v>
+        <v>1360.8242760000001</v>
       </c>
       <c r="G25">
-        <v>1405.6217830000001</v>
+        <v>1400.677034</v>
       </c>
       <c r="H25">
-        <v>1121.036323</v>
+        <v>1119.0440590000001</v>
       </c>
       <c r="I25">
-        <v>1062.6081859999999</v>
+        <v>1079.3459</v>
       </c>
       <c r="J25">
-        <v>925.00655640000002</v>
+        <v>859.29653689999998</v>
       </c>
       <c r="K25">
-        <v>1237.686927</v>
+        <v>1207.379001</v>
       </c>
       <c r="L25">
-        <v>1637.1844819999999</v>
+        <v>1693.645409</v>
       </c>
       <c r="M25">
-        <v>2139.97957</v>
+        <v>2384.9926289999999</v>
       </c>
       <c r="N25">
-        <v>1582.1215090000001</v>
+        <v>1807.712518</v>
       </c>
       <c r="O25">
-        <v>1516.4709829999999</v>
+        <v>1813.707619</v>
       </c>
       <c r="P25">
-        <v>1289.7498169999999</v>
+        <v>1345.655739</v>
       </c>
       <c r="Q25">
-        <v>1848.0231839999999</v>
+        <v>1930.0979809999999</v>
       </c>
       <c r="R25">
-        <v>1783.34393</v>
+        <v>1777.162597</v>
       </c>
       <c r="S25">
-        <v>2695.6681250000001</v>
+        <v>3099.003064</v>
       </c>
       <c r="T25">
-        <v>2353.134712</v>
+        <v>2368.6759320000001</v>
       </c>
       <c r="U25">
-        <v>2800.369103</v>
+        <v>2782.3693560000002</v>
       </c>
       <c r="V25">
-        <v>4000.5752600000001</v>
+        <v>3971.9708999999998</v>
       </c>
       <c r="W25">
-        <v>5247.4579240000003</v>
+        <v>5193.3942230000002</v>
       </c>
       <c r="X25">
-        <v>5910.5385150000002</v>
+        <v>5831.8164880000004</v>
       </c>
       <c r="Y25">
-        <v>6110.3776749999997</v>
+        <v>6008.5948470000003</v>
       </c>
       <c r="Z25">
-        <v>6107.8129239999998</v>
+        <v>5981.9404679999998</v>
       </c>
       <c r="AA25">
-        <v>5981.3279409999996</v>
+        <v>5836.6274540000004</v>
       </c>
       <c r="AB25">
-        <v>5836.4068580000003</v>
+        <v>5652.661623</v>
       </c>
       <c r="AC25">
-        <v>5727.8087439999999</v>
+        <v>5515.2255400000004</v>
       </c>
       <c r="AD25">
-        <v>5614.6432850000001</v>
+        <v>5368.043909</v>
       </c>
       <c r="AE25">
-        <v>5502.5679209999998</v>
+        <v>5231.3186269999997</v>
       </c>
       <c r="AF25">
-        <v>5422.6326280000003</v>
+        <v>5127.0873320000001</v>
       </c>
       <c r="AG25">
-        <v>5340.5743060000004</v>
+        <v>5028.2782520000001</v>
       </c>
       <c r="AH25">
-        <v>5257.2940609999996</v>
+        <v>4924.4486020000004</v>
       </c>
       <c r="AI25">
-        <v>5206.6595619999998</v>
+        <v>4856.1063800000002</v>
       </c>
       <c r="AJ25">
-        <v>5164.5040760000002</v>
+        <v>4804.3839909999997</v>
       </c>
       <c r="AK25">
-        <v>5124.6178749999999</v>
+        <v>4752.099502</v>
       </c>
       <c r="AL25">
-        <v>6338.1957419999999</v>
+        <v>5864.3257519999997</v>
       </c>
       <c r="AM25">
-        <v>6415.3030859999999</v>
+        <v>5970.4148409999998</v>
       </c>
       <c r="AN25">
-        <v>6450.4714560000002</v>
+        <v>5992.2768960000003</v>
       </c>
       <c r="AO25">
-        <v>6453.6888369999997</v>
+        <v>5982.5233740000003</v>
       </c>
       <c r="AP25">
-        <v>6442.6799000000001</v>
+        <v>5959.6419820000001</v>
       </c>
       <c r="AQ25">
-        <v>6425.603083</v>
+        <v>5932.2649380000003</v>
       </c>
       <c r="AR25">
-        <v>6412.1624460000003</v>
+        <v>5909.6730340000004</v>
       </c>
       <c r="AS25">
-        <v>6413.1627200000003</v>
+        <v>5900.613394</v>
       </c>
       <c r="AT25">
-        <v>6427.5624019999996</v>
+        <v>5903.3783169999997</v>
       </c>
       <c r="AU25">
-        <v>6452.792794</v>
+        <v>5915.3868460000003</v>
       </c>
       <c r="AV25">
-        <v>6490.5215850000004</v>
+        <v>5938.0376120000001</v>
       </c>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.35">
@@ -5055,136 +5055,136 @@
         <v>1241.7959149999999</v>
       </c>
       <c r="E30">
-        <v>1565.7277939999999</v>
+        <v>1565.7284119999999</v>
       </c>
       <c r="F30">
-        <v>1941.6735289999999</v>
+        <v>1904.3799469999999</v>
       </c>
       <c r="G30">
-        <v>2093.97622</v>
+        <v>2063.5888580000001</v>
       </c>
       <c r="H30">
-        <v>1612.925164</v>
+        <v>1599.5573380000001</v>
       </c>
       <c r="I30">
-        <v>1751.2372089999999</v>
+        <v>1753.411701</v>
       </c>
       <c r="J30">
-        <v>2254.1124719999998</v>
+        <v>2256.704686</v>
       </c>
       <c r="K30">
-        <v>2691.886074</v>
+        <v>2694.8170100000002</v>
       </c>
       <c r="L30">
-        <v>2724.2118970000001</v>
+        <v>2727.2407210000001</v>
       </c>
       <c r="M30">
-        <v>2356.499984</v>
+        <v>2359.324955</v>
       </c>
       <c r="N30">
-        <v>1443.074934</v>
+        <v>1445.35682</v>
       </c>
       <c r="O30">
-        <v>945.8530892</v>
+        <v>947.99088510000001</v>
       </c>
       <c r="P30">
-        <v>1255.9344550000001</v>
+        <v>1258.299865</v>
       </c>
       <c r="Q30">
-        <v>2307.1937400000002</v>
+        <v>2310.124049</v>
       </c>
       <c r="R30">
-        <v>2463.7540589999999</v>
+        <v>2448.3350009999999</v>
       </c>
       <c r="S30">
-        <v>2235.813525</v>
+        <v>2247.779153</v>
       </c>
       <c r="T30">
-        <v>2358.5944249999998</v>
+        <v>2347.1792690000002</v>
       </c>
       <c r="U30">
-        <v>3035.6820670000002</v>
+        <v>3053.4407179999998</v>
       </c>
       <c r="V30">
-        <v>3398.6423370000002</v>
+        <v>3410.4484470000002</v>
       </c>
       <c r="W30">
-        <v>3790.578857</v>
+        <v>3773.8824509999999</v>
       </c>
       <c r="X30">
-        <v>3968.8398120000002</v>
+        <v>3933.4488000000001</v>
       </c>
       <c r="Y30">
-        <v>3677.736367</v>
+        <v>3551.0946469999999</v>
       </c>
       <c r="Z30">
-        <v>3290.620637</v>
+        <v>3169.0535380000001</v>
       </c>
       <c r="AA30">
-        <v>2890.6778039999999</v>
+        <v>2782.401069</v>
       </c>
       <c r="AB30">
-        <v>2539.6263880000001</v>
+        <v>2446.8110590000001</v>
       </c>
       <c r="AC30">
-        <v>2253.6896900000002</v>
+        <v>2175.4341880000002</v>
       </c>
       <c r="AD30">
-        <v>2031.0970170000001</v>
+        <v>1964.5735629999999</v>
       </c>
       <c r="AE30">
-        <v>1861.913867</v>
+        <v>1804.2509500000001</v>
       </c>
       <c r="AF30">
-        <v>1731.7555589999999</v>
+        <v>1680.9354330000001</v>
       </c>
       <c r="AG30">
-        <v>1628.7411609999999</v>
+        <v>1583.3602760000001</v>
       </c>
       <c r="AH30">
-        <v>1548.6959079999999</v>
+        <v>1507.3511390000001</v>
       </c>
       <c r="AI30">
-        <v>1498.625147</v>
+        <v>1459.4016790000001</v>
       </c>
       <c r="AJ30">
-        <v>1467.968924</v>
+        <v>1430.0160920000001</v>
       </c>
       <c r="AK30">
-        <v>1446.820334</v>
+        <v>1409.9723080000001</v>
       </c>
       <c r="AL30">
-        <v>1431.212497</v>
+        <v>1395.567536</v>
       </c>
       <c r="AM30">
-        <v>1422.1335240000001</v>
+        <v>1387.608905</v>
       </c>
       <c r="AN30">
-        <v>1424.798663</v>
+        <v>1390.400279</v>
       </c>
       <c r="AO30">
-        <v>1433.5104690000001</v>
+        <v>1398.776599</v>
       </c>
       <c r="AP30">
-        <v>1443.516938</v>
+        <v>1408.448069</v>
       </c>
       <c r="AQ30">
-        <v>1452.1034540000001</v>
+        <v>1416.7243759999999</v>
       </c>
       <c r="AR30">
-        <v>1462.438623</v>
+        <v>1426.357141</v>
       </c>
       <c r="AS30">
-        <v>1480.3692000000001</v>
+        <v>1442.273686</v>
       </c>
       <c r="AT30">
-        <v>1502.4862209999999</v>
+        <v>1461.358663</v>
       </c>
       <c r="AU30">
-        <v>1526.2205429999999</v>
+        <v>1481.3081119999999</v>
       </c>
       <c r="AV30">
-        <v>1549.1145300000001</v>
+        <v>1500.3214049999999</v>
       </c>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.35">
@@ -5201,136 +5201,136 @@
         <v>1241.7959149999999</v>
       </c>
       <c r="E31">
-        <v>1565.7277939999999</v>
+        <v>1565.7284119999999</v>
       </c>
       <c r="F31">
-        <v>1941.6735289999999</v>
+        <v>1904.3799469999999</v>
       </c>
       <c r="G31">
-        <v>2093.97622</v>
+        <v>2063.5888580000001</v>
       </c>
       <c r="H31">
-        <v>1612.925164</v>
+        <v>1599.5573380000001</v>
       </c>
       <c r="I31">
-        <v>1751.247253</v>
+        <v>1753.411701</v>
       </c>
       <c r="J31">
-        <v>2254.1282059999999</v>
+        <v>2256.704686</v>
       </c>
       <c r="K31">
-        <v>2691.768881</v>
+        <v>2694.8170100000002</v>
       </c>
       <c r="L31">
-        <v>2724.0901399999998</v>
+        <v>2727.2407210000001</v>
       </c>
       <c r="M31">
-        <v>2356.6627749999998</v>
+        <v>2359.324955</v>
       </c>
       <c r="N31">
-        <v>1444.0569459999999</v>
+        <v>1445.35682</v>
       </c>
       <c r="O31">
-        <v>948.52745990000005</v>
+        <v>947.99088510000001</v>
       </c>
       <c r="P31">
-        <v>1259.6349130000001</v>
+        <v>1258.299865</v>
       </c>
       <c r="Q31">
-        <v>2307.7684880000002</v>
+        <v>2310.124049</v>
       </c>
       <c r="R31">
-        <v>2462.0195039999999</v>
+        <v>2448.3350009999999</v>
       </c>
       <c r="S31">
-        <v>2234.9072999999999</v>
+        <v>2247.779153</v>
       </c>
       <c r="T31">
-        <v>2363.7348550000002</v>
+        <v>2347.1792690000002</v>
       </c>
       <c r="U31">
-        <v>3026.2280260000002</v>
+        <v>3043.023839</v>
       </c>
       <c r="V31">
-        <v>4124.0462809999999</v>
+        <v>4135.4870460000002</v>
       </c>
       <c r="W31">
-        <v>5430.9612100000004</v>
+        <v>5413.5929409999999</v>
       </c>
       <c r="X31">
-        <v>6117.7012400000003</v>
+        <v>6088.4972829999997</v>
       </c>
       <c r="Y31">
-        <v>5961.4825730000002</v>
+        <v>5919.9947739999998</v>
       </c>
       <c r="Z31">
-        <v>5433.7865860000002</v>
+        <v>5392.5182679999998</v>
       </c>
       <c r="AA31">
-        <v>4779.9491600000001</v>
+        <v>4745.9506309999997</v>
       </c>
       <c r="AB31">
-        <v>4187.5772740000002</v>
+        <v>4139.147395</v>
       </c>
       <c r="AC31">
-        <v>3711.218018</v>
+        <v>3671.4824960000001</v>
       </c>
       <c r="AD31">
-        <v>3320.154908</v>
+        <v>3287.0929379999998</v>
       </c>
       <c r="AE31">
-        <v>3016.7367020000002</v>
+        <v>2989.0151000000001</v>
       </c>
       <c r="AF31">
-        <v>2815.2861659999999</v>
+        <v>2782.7418779999998</v>
       </c>
       <c r="AG31">
-        <v>2655.8316690000001</v>
+        <v>2622.2635310000001</v>
       </c>
       <c r="AH31">
-        <v>2519.5052289999999</v>
+        <v>2477.0901389999999</v>
       </c>
       <c r="AI31">
-        <v>2437.092384</v>
+        <v>2387.6198509999999</v>
       </c>
       <c r="AJ31">
-        <v>2371.819763</v>
+        <v>2321.2772300000001</v>
       </c>
       <c r="AK31">
-        <v>2305.2800649999999</v>
+        <v>2247.5174419999998</v>
       </c>
       <c r="AL31">
-        <v>2384.987842</v>
+        <v>2314.2699940000002</v>
       </c>
       <c r="AM31">
-        <v>2411.5551949999999</v>
+        <v>2365.9789479999999</v>
       </c>
       <c r="AN31">
-        <v>2372.63411</v>
+        <v>2308.6678619999998</v>
       </c>
       <c r="AO31">
-        <v>2317.0075959999999</v>
+        <v>2240.7904720000001</v>
       </c>
       <c r="AP31">
-        <v>2256.3276959999998</v>
+        <v>2170.9893860000002</v>
       </c>
       <c r="AQ31">
-        <v>2194.425158</v>
+        <v>2102.2292130000001</v>
       </c>
       <c r="AR31">
-        <v>2136.9658410000002</v>
+        <v>2040.3505279999999</v>
       </c>
       <c r="AS31">
-        <v>2088.7616619999999</v>
+        <v>1987.3094599999999</v>
       </c>
       <c r="AT31">
-        <v>2046.316106</v>
+        <v>1939.7331750000001</v>
       </c>
       <c r="AU31">
-        <v>2007.5812699999999</v>
+        <v>1895.8198460000001</v>
       </c>
       <c r="AV31">
-        <v>1971.0280749999999</v>
+        <v>1854.258605</v>
       </c>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.35">
@@ -5344,139 +5344,139 @@
         <v>1709.87189532965</v>
       </c>
       <c r="D32">
-        <v>1772.0709939999999</v>
+        <v>1772.070993</v>
       </c>
       <c r="E32">
-        <v>1981.818673</v>
+        <v>1981.819452</v>
       </c>
       <c r="F32">
-        <v>2192.6509719999999</v>
+        <v>2192.6520129999999</v>
       </c>
       <c r="G32">
-        <v>2181.669519</v>
+        <v>2181.6378810000001</v>
       </c>
       <c r="H32">
-        <v>1923.1609370000001</v>
+        <v>1923.1180589999999</v>
       </c>
       <c r="I32">
-        <v>1886.272336</v>
+        <v>1886.218183</v>
       </c>
       <c r="J32">
-        <v>2021.604652</v>
+        <v>2021.5928200000001</v>
       </c>
       <c r="K32">
-        <v>2098.7550639999999</v>
+        <v>2098.8048490000001</v>
       </c>
       <c r="L32">
-        <v>2053.4065399999999</v>
+        <v>2053.5109980000002</v>
       </c>
       <c r="M32">
-        <v>1865.666213</v>
+        <v>1865.7873970000001</v>
       </c>
       <c r="N32">
-        <v>1517.463778</v>
+        <v>1517.579628</v>
       </c>
       <c r="O32">
-        <v>1299.9747640000001</v>
+        <v>1300.114853</v>
       </c>
       <c r="P32">
-        <v>1391.3061299999999</v>
+        <v>1391.4037599999999</v>
       </c>
       <c r="Q32">
-        <v>1669.039943</v>
+        <v>1669.0846019999999</v>
       </c>
       <c r="R32">
-        <v>1744.283643</v>
+        <v>1742.100666</v>
       </c>
       <c r="S32">
-        <v>1606.1369299999999</v>
+        <v>1604.8382340000001</v>
       </c>
       <c r="T32">
-        <v>1645.566718</v>
+        <v>1645.210073</v>
       </c>
       <c r="U32">
-        <v>1735.525001</v>
+        <v>1730.9726390000001</v>
       </c>
       <c r="V32">
-        <v>1736.4689840000001</v>
+        <v>1728.8381959999999</v>
       </c>
       <c r="W32">
-        <v>1693.3793000000001</v>
+        <v>1674.9689040000001</v>
       </c>
       <c r="X32">
-        <v>1652.1698180000001</v>
+        <v>1629.5786519999999</v>
       </c>
       <c r="Y32">
-        <v>1424.341635</v>
+        <v>1395.958674</v>
       </c>
       <c r="Z32">
-        <v>1252.671879</v>
+        <v>1226.422703</v>
       </c>
       <c r="AA32">
-        <v>1101.49992</v>
+        <v>1074.3995890000001</v>
       </c>
       <c r="AB32">
-        <v>977.27831939999999</v>
+        <v>950.13902489999998</v>
       </c>
       <c r="AC32">
-        <v>877.7182219</v>
+        <v>851.20474409999997</v>
       </c>
       <c r="AD32">
-        <v>799.16230110000004</v>
+        <v>773.12027720000003</v>
       </c>
       <c r="AE32">
-        <v>737.09531279999999</v>
+        <v>711.38047779999999</v>
       </c>
       <c r="AF32">
-        <v>686.55150660000004</v>
+        <v>661.20371209999996</v>
       </c>
       <c r="AG32">
-        <v>644.08277780000003</v>
+        <v>619.17976080000005</v>
       </c>
       <c r="AH32">
-        <v>607.25415559999999</v>
+        <v>582.84271879999994</v>
       </c>
       <c r="AI32">
-        <v>576.34493150000003</v>
+        <v>552.46494470000005</v>
       </c>
       <c r="AJ32">
-        <v>549.8953219</v>
+        <v>526.60537360000001</v>
       </c>
       <c r="AK32">
-        <v>525.80383070000005</v>
+        <v>503.17027610000002</v>
       </c>
       <c r="AL32">
-        <v>503.44539609999998</v>
+        <v>481.5152832</v>
       </c>
       <c r="AM32">
-        <v>483.2532089</v>
+        <v>461.85936939999999</v>
       </c>
       <c r="AN32">
-        <v>465.91007719999999</v>
+        <v>444.48207619999999</v>
       </c>
       <c r="AO32">
-        <v>449.96203980000001</v>
+        <v>428.56564989999998</v>
       </c>
       <c r="AP32">
-        <v>434.8266261</v>
+        <v>413.49617660000001</v>
       </c>
       <c r="AQ32">
-        <v>419.86893989999999</v>
+        <v>398.59937619999999</v>
       </c>
       <c r="AR32">
-        <v>405.7232166</v>
+        <v>384.49555409999999</v>
       </c>
       <c r="AS32">
-        <v>393.11706959999998</v>
+        <v>371.79863760000001</v>
       </c>
       <c r="AT32">
-        <v>381.46448479999998</v>
+        <v>359.9875753</v>
       </c>
       <c r="AU32">
-        <v>370.48123550000003</v>
+        <v>348.74440420000002</v>
       </c>
       <c r="AV32">
-        <v>360.10975739999998</v>
+        <v>338.02132920000003</v>
       </c>
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.35">
@@ -5490,139 +5490,139 @@
         <v>1709.87189532965</v>
       </c>
       <c r="D33">
-        <v>1772.0709939999999</v>
+        <v>1772.070993</v>
       </c>
       <c r="E33">
-        <v>1981.818673</v>
+        <v>1981.819452</v>
       </c>
       <c r="F33">
-        <v>2192.6509719999999</v>
+        <v>2192.6520129999999</v>
       </c>
       <c r="G33">
-        <v>2181.669519</v>
+        <v>2181.6378810000001</v>
       </c>
       <c r="H33">
-        <v>1923.1609370000001</v>
+        <v>1923.1180589999999</v>
       </c>
       <c r="I33">
-        <v>1886.276783</v>
+        <v>1886.218183</v>
       </c>
       <c r="J33">
-        <v>2021.613828</v>
+        <v>2021.5928200000001</v>
       </c>
       <c r="K33">
-        <v>2098.7082610000002</v>
+        <v>2098.8048490000001</v>
       </c>
       <c r="L33">
-        <v>2053.3255260000001</v>
+        <v>2053.5109980000002</v>
       </c>
       <c r="M33">
-        <v>1865.717897</v>
+        <v>1865.7873970000001</v>
       </c>
       <c r="N33">
-        <v>1517.858287</v>
+        <v>1517.579628</v>
       </c>
       <c r="O33">
-        <v>1301.089909</v>
+        <v>1300.114853</v>
       </c>
       <c r="P33">
-        <v>1392.9872519999999</v>
+        <v>1391.4037599999999</v>
       </c>
       <c r="Q33">
-        <v>1669.6293470000001</v>
+        <v>1669.0846019999999</v>
       </c>
       <c r="R33">
-        <v>1743.535689</v>
+        <v>1742.100666</v>
       </c>
       <c r="S33">
-        <v>1605.474545</v>
+        <v>1604.8382340000001</v>
       </c>
       <c r="T33">
-        <v>1647.1901499999999</v>
+        <v>1645.210073</v>
       </c>
       <c r="U33">
-        <v>1733.4282800000001</v>
+        <v>1727.827534</v>
       </c>
       <c r="V33">
-        <v>1935.648418</v>
+        <v>1928.712354</v>
       </c>
       <c r="W33">
-        <v>2255.9518600000001</v>
+        <v>2242.088405</v>
       </c>
       <c r="X33">
-        <v>2332.3453530000002</v>
+        <v>2311.9640370000002</v>
       </c>
       <c r="Y33">
-        <v>2161.7491439999999</v>
+        <v>2137.6124890000001</v>
       </c>
       <c r="Z33">
-        <v>1896.306374</v>
+        <v>1872.2748549999999</v>
       </c>
       <c r="AA33">
-        <v>1630.154501</v>
+        <v>1603.646962</v>
       </c>
       <c r="AB33">
-        <v>1394.5116250000001</v>
+        <v>1367.234878</v>
       </c>
       <c r="AC33">
-        <v>1213.1193969999999</v>
+        <v>1188.333347</v>
       </c>
       <c r="AD33">
-        <v>1065.8465229999999</v>
+        <v>1042.926146</v>
       </c>
       <c r="AE33">
-        <v>950.57363850000002</v>
+        <v>929.2621911</v>
       </c>
       <c r="AF33">
-        <v>864.55825319999997</v>
+        <v>844.50348899999995</v>
       </c>
       <c r="AG33">
-        <v>796.68872290000002</v>
+        <v>777.66862209999999</v>
       </c>
       <c r="AH33">
-        <v>734.43607329999998</v>
+        <v>715.85812020000003</v>
       </c>
       <c r="AI33">
-        <v>685.83966080000005</v>
+        <v>667.79919659999996</v>
       </c>
       <c r="AJ33">
-        <v>645.63994379999997</v>
+        <v>628.15470919999996</v>
       </c>
       <c r="AK33">
-        <v>604.89642289999995</v>
+        <v>587.59222890000001</v>
       </c>
       <c r="AL33">
-        <v>590.63652590000004</v>
+        <v>572.99744480000004</v>
       </c>
       <c r="AM33">
-        <v>582.3878201</v>
+        <v>564.83364840000002</v>
       </c>
       <c r="AN33">
-        <v>547.74226490000001</v>
+        <v>529.10082439999996</v>
       </c>
       <c r="AO33">
-        <v>512.87146710000002</v>
+        <v>494.03124100000002</v>
       </c>
       <c r="AP33">
-        <v>479.72292540000001</v>
+        <v>460.93950910000001</v>
       </c>
       <c r="AQ33">
-        <v>448.50632419999999</v>
+        <v>429.87682039999999</v>
       </c>
       <c r="AR33">
-        <v>420.12746170000003</v>
+        <v>401.61046040000002</v>
       </c>
       <c r="AS33">
-        <v>394.86149499999999</v>
+        <v>376.31850029999998</v>
       </c>
       <c r="AT33">
-        <v>371.95044489999998</v>
+        <v>353.30186470000001</v>
       </c>
       <c r="AU33">
-        <v>351.03602480000001</v>
+        <v>332.24240959999997</v>
       </c>
       <c r="AV33">
-        <v>331.75784060000001</v>
+        <v>312.8228828</v>
       </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.35">
@@ -5782,7 +5782,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5845,11 +5845,11 @@
       </c>
       <c r="I3" s="1">
         <f>Feuil1!R11/Feuil1!$R$4</f>
-        <v>6.0480560866573586E-2</v>
+        <v>6.0471961486112738E-2</v>
       </c>
       <c r="J3" s="25">
         <f>I3-H3</f>
-        <v>4.0480560866573589E-2</v>
+        <v>4.0471961486112734E-2</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="13">
@@ -5858,18 +5858,18 @@
       </c>
       <c r="M3" s="14">
         <f>SUM(Feuil1!N3:R3)/5</f>
-        <v>565128.65748000005</v>
+        <v>565380.69466000004</v>
       </c>
       <c r="N3" s="15">
         <f>L3-M3</f>
-        <v>-117776.77134372701</v>
+        <v>-118028.808523727</v>
       </c>
       <c r="O3" s="11">
         <v>14000</v>
       </c>
       <c r="P3" s="19">
         <f>SUM(Feuil1!R2:S2)/2</f>
-        <v>15660.395990000001</v>
+        <v>15649.803479999999</v>
       </c>
       <c r="R3" s="12"/>
     </row>
@@ -5886,11 +5886,11 @@
       </c>
       <c r="I4" s="1">
         <f>Feuil1!R10/Feuil1!$R$4</f>
-        <v>2.400612657174547E-2</v>
+        <v>2.4014166431544106E-2</v>
       </c>
       <c r="J4" s="25">
         <f t="shared" ref="J4:J9" si="0">I4-H4</f>
-        <v>-1.0993873428254534E-2</v>
+        <v>-1.0985833568455897E-2</v>
       </c>
       <c r="K4" s="11"/>
       <c r="N4" s="12"/>
@@ -5910,11 +5910,11 @@
       </c>
       <c r="I5" s="1">
         <f>Feuil1!R9/Feuil1!$R$4</f>
-        <v>0.20605274791077086</v>
+        <v>0.20603371956222499</v>
       </c>
       <c r="J5" s="25">
         <f t="shared" si="0"/>
-        <v>-2.8947252089229131E-2</v>
+        <v>-2.8966280437774994E-2</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" t="s">
@@ -5947,36 +5947,36 @@
       </c>
       <c r="I6" s="1">
         <f>Feuil1!R8/Feuil1!$R$4</f>
-        <v>0.31544598504126092</v>
+        <v>0.31540068872425664</v>
       </c>
       <c r="J6" s="25">
         <f t="shared" si="0"/>
-        <v>-4.5540149587390832E-3</v>
+        <v>-4.5993112757433674E-3</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="17">
         <f>SUM(Feuil1!V3:AV3)/(2050-2023)</f>
-        <v>793060.97472962958</v>
+        <v>772629.21709629591</v>
       </c>
       <c r="M6" s="17">
         <f>SUM(Feuil1!V13:AV13)/(2050-2023)</f>
-        <v>1126160.7634925928</v>
+        <v>1132941.638411111</v>
       </c>
       <c r="N6" s="18">
         <f>M6-L6</f>
-        <v>333099.78876296326</v>
+        <v>360312.42131481506</v>
       </c>
       <c r="O6" s="16">
         <f>SUM(Feuil1!V2:AV2)/(2050-2023)+SUM(Feuil1!V26:AV26)/(2050-2023)</f>
-        <v>22269.26319037037</v>
+        <v>20336.333960740736</v>
       </c>
       <c r="P6" s="20">
         <f>SUM(Feuil1!V12:AV12)/(2050-2023)+SUM(Feuil1!V27:AV27)/(2050-2023)</f>
-        <v>32700.456774074075</v>
+        <v>30914.564904814823</v>
       </c>
       <c r="Q6" s="17">
         <f>P6-O6</f>
-        <v>10431.193583703705</v>
+        <v>10578.230944074086</v>
       </c>
       <c r="R6" s="21"/>
     </row>
@@ -5993,15 +5993,15 @@
       </c>
       <c r="I7" s="1">
         <f>Feuil1!R7/Feuil1!$R$4</f>
-        <v>0.23830442530115378</v>
+        <v>0.23828121270920097</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="0"/>
-        <v>1.8304425301153782E-2</v>
+        <v>1.8281212709200967E-2</v>
       </c>
       <c r="Q7" s="14">
         <f>Q6*1000/N6</f>
-        <v>31.31552146112778</v>
+        <v>29.358496455584554</v>
       </c>
       <c r="R7" t="s">
         <v>53</v>
@@ -6020,11 +6020,11 @@
       </c>
       <c r="I8" s="1">
         <f>Feuil1!R6/Feuil1!$R$4</f>
-        <v>0.12056616855416807</v>
+        <v>0.12065734953720002</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="0"/>
-        <v>2.0566168554168068E-2</v>
+        <v>2.0657349537200012E-2</v>
       </c>
       <c r="N8" s="14"/>
     </row>
@@ -6041,11 +6041,11 @@
       </c>
       <c r="I9" s="1">
         <f>Feuil1!R5/Feuil1!$R$4</f>
-        <v>3.5143985943280727E-2</v>
+        <v>3.5140901697659287E-2</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" si="0"/>
-        <v>-3.485601405671928E-2</v>
+        <v>-3.485909830234072E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
